--- a/src/out/20172018华中师大教技群.xlsx
+++ b/src/out/20172018华中师大教技群.xlsx
@@ -162,12 +162,12 @@
     <t>大米饭(614490691)</t>
   </si>
   <si>
+    <t>南山南(1783586417)</t>
+  </si>
+  <si>
     <t>仙人掌(2023234587)</t>
   </si>
   <si>
-    <t>南山南(1783586417)</t>
-  </si>
-  <si>
     <t>右手年华(1169389895)</t>
   </si>
   <si>
@@ -183,15 +183,15 @@
     <t>环大帝(1776802386)</t>
   </si>
   <si>
+    <t>Z(523209129)</t>
+  </si>
+  <si>
+    <t>kaoklai(2110401398)</t>
+  </si>
+  <si>
     <t>指尖划过(1506645431)</t>
   </si>
   <si>
-    <t>kaoklai(2110401398)</t>
-  </si>
-  <si>
-    <t>Z(523209129)</t>
-  </si>
-  <si>
     <t>馨_梦_缘(2380632272)</t>
   </si>
   <si>
@@ -201,606 +201,606 @@
     <t>844764041(844764041)</t>
   </si>
   <si>
+    <t>Daisy**(1351462450)</t>
+  </si>
+  <si>
+    <t>づ Alice  、(291508839)</t>
+  </si>
+  <si>
     <t>寂静欢喜(1047793182)</t>
   </si>
   <si>
-    <t>づ Alice  、(291508839)</t>
-  </si>
-  <si>
     <t>Flavor﹌○﹌(937265124)</t>
   </si>
   <si>
-    <t>Daisy**(1351462450)</t>
+    <t>橘子黄时(1622394719)</t>
+  </si>
+  <si>
+    <t>(2316605517)</t>
+  </si>
+  <si>
+    <t>青稞(1837693345)</t>
+  </si>
+  <si>
+    <t>水瑈(1210545829)</t>
+  </si>
+  <si>
+    <t>(654705193)</t>
+  </si>
+  <si>
+    <t>猫猫如意(1054129339)</t>
   </si>
   <si>
     <t>(545520443)</t>
   </si>
   <si>
-    <t>橘子黄时(1622394719)</t>
-  </si>
-  <si>
-    <t>(2316605517)</t>
-  </si>
-  <si>
-    <t>猫猫如意(1054129339)</t>
-  </si>
-  <si>
     <t>(778746618)</t>
   </si>
   <si>
-    <t>水瑈(1210545829)</t>
-  </si>
-  <si>
-    <t>青稞(1837693345)</t>
-  </si>
-  <si>
-    <t>(654705193)</t>
+    <t>意乐(2928161289)</t>
+  </si>
+  <si>
+    <t>💤(297863069)</t>
+  </si>
+  <si>
+    <t>lemon酸(1187264181)</t>
+  </si>
+  <si>
+    <t>麒(172404460)</t>
+  </si>
+  <si>
+    <t>漂洋过海来看你(844764041)</t>
+  </si>
+  <si>
+    <t>(844764041)</t>
+  </si>
+  <si>
+    <t>––––(1041621651)</t>
   </si>
   <si>
     <t>柚子(78006689)</t>
   </si>
   <si>
-    <t>(844764041)</t>
-  </si>
-  <si>
     <t>一只能唱会跳的DC🐮(892852910)</t>
   </si>
   <si>
-    <t>漂洋过海来看你(844764041)</t>
-  </si>
-  <si>
-    <t>––––(1041621651)</t>
-  </si>
-  <si>
-    <t>意乐(2928161289)</t>
-  </si>
-  <si>
-    <t>lemon酸(1187264181)</t>
-  </si>
-  <si>
-    <t>💤(297863069)</t>
-  </si>
-  <si>
-    <t>麒(172404460)</t>
+    <t>1174965189(1174965189)</t>
+  </si>
+  <si>
+    <t>怦然心动(793484958)</t>
   </si>
   <si>
     <t>小小小志(419825855)</t>
   </si>
   <si>
+    <t>梨✌予君旁(1054474730)</t>
+  </si>
+  <si>
+    <t>3432725894(3432725894)</t>
+  </si>
+  <si>
+    <t>93号(1733004832)</t>
+  </si>
+  <si>
+    <t>清玲之恋(1101314653)</t>
+  </si>
+  <si>
+    <t>(1083463827)</t>
+  </si>
+  <si>
     <t>不要说话(1914826709)</t>
   </si>
   <si>
-    <t>怦然心动(793484958)</t>
-  </si>
-  <si>
-    <t>(1083463827)</t>
-  </si>
-  <si>
-    <t>93号(1733004832)</t>
-  </si>
-  <si>
-    <t>1174965189(1174965189)</t>
-  </si>
-  <si>
-    <t>清玲之恋(1101314653)</t>
-  </si>
-  <si>
     <t>千寻瀑(957936238)</t>
   </si>
   <si>
-    <t>梨✌予君旁(1054474730)</t>
-  </si>
-  <si>
-    <t>3432725894(3432725894)</t>
+    <t>左然莫奈(1690949570)</t>
+  </si>
+  <si>
+    <t>芳土中的金色記憶(1272240185)</t>
+  </si>
+  <si>
+    <t>restart(1311449671)</t>
+  </si>
+  <si>
+    <t>(78006689)</t>
+  </si>
+  <si>
+    <t>王家七大少(2092253097)</t>
   </si>
   <si>
     <t>做个简单的薯片😝(1743147231)</t>
   </si>
   <si>
-    <t>芳土中的金色記憶(1272240185)</t>
-  </si>
-  <si>
-    <t>王家七大少(2092253097)</t>
-  </si>
-  <si>
-    <t>restart(1311449671)</t>
-  </si>
-  <si>
-    <t>(78006689)</t>
-  </si>
-  <si>
     <t>安安(1784054339)</t>
   </si>
   <si>
-    <t>左然莫奈(1690949570)</t>
-  </si>
-  <si>
     <t>吾心永恒👲(2685718613)</t>
   </si>
   <si>
+    <t>づ思念、漫过我的城&lt;spygzeq@foxmail.com&gt;</t>
+  </si>
+  <si>
+    <t>时光凉人心(2396341551)</t>
+  </si>
+  <si>
+    <t>1129782826(1129782826)</t>
+  </si>
+  <si>
+    <t>Daisy(1298147864)</t>
+  </si>
+  <si>
+    <t>(1776802386)</t>
+  </si>
+  <si>
+    <t>可乐粉里的青花瓷(2714103049)</t>
+  </si>
+  <si>
+    <t>地瓜你个烤番薯 🍉(860485645)</t>
+  </si>
+  <si>
+    <t>(951060679)</t>
+  </si>
+  <si>
+    <t>^Secretofmyboy(1831844901)</t>
+  </si>
+  <si>
+    <t>Unique(386358455)</t>
+  </si>
+  <si>
     <t>1301陈紫欣(2010719010)</t>
   </si>
   <si>
-    <t>地瓜你个烤番薯 🍉(860485645)</t>
+    <t>(3432725894)</t>
+  </si>
+  <si>
+    <t>Seal＆Post(1984604486)</t>
   </si>
   <si>
     <t>蕶(957158256)</t>
   </si>
   <si>
-    <t>Daisy(1298147864)</t>
-  </si>
-  <si>
-    <t>づ思念、漫过我的城&lt;spygzeq@foxmail.com&gt;</t>
-  </si>
-  <si>
-    <t>1129782826(1129782826)</t>
-  </si>
-  <si>
-    <t>^Secretofmyboy(1831844901)</t>
-  </si>
-  <si>
-    <t>(1776802386)</t>
-  </si>
-  <si>
-    <t>可乐粉里的青花瓷(2714103049)</t>
-  </si>
-  <si>
-    <t>Seal＆Post(1984604486)</t>
-  </si>
-  <si>
-    <t>(951060679)</t>
-  </si>
-  <si>
-    <t>Unique(386358455)</t>
-  </si>
-  <si>
-    <t>(3432725894)</t>
-  </si>
-  <si>
-    <t>时光凉人心(2396341551)</t>
+    <t>花落.自相惜(1037898131)</t>
+  </si>
+  <si>
+    <t>๑˙ー˙๑懵石子(1241539404)</t>
+  </si>
+  <si>
+    <t>(2928161289)</t>
+  </si>
+  <si>
+    <t>WSS (^V^)(1594288422)</t>
+  </si>
+  <si>
+    <t>Hehhjk(1827843091)</t>
+  </si>
+  <si>
+    <t>越努力 越幸运(1162902922)</t>
+  </si>
+  <si>
+    <t>Yesterday(847143652)</t>
+  </si>
+  <si>
+    <t>1301-吴海英。(932772445)</t>
   </si>
   <si>
     <t>流萤(1745996805)</t>
   </si>
   <si>
+    <t>此时此刻的云 二十来岁的(1032725610)</t>
+  </si>
+  <si>
+    <t>`M'aster(522156844)</t>
+  </si>
+  <si>
+    <t>(2010719010)</t>
+  </si>
+  <si>
+    <t>大街小巷''(565759084)</t>
+  </si>
+  <si>
     <t>我当仙女很久了(784364039)</t>
   </si>
   <si>
     <t>少说话多看书！(951060679)</t>
   </si>
   <si>
-    <t>花落.自相惜(1037898131)</t>
-  </si>
-  <si>
-    <t>(2010719010)</t>
-  </si>
-  <si>
-    <t>WSS (^V^)(1594288422)</t>
-  </si>
-  <si>
-    <t>1301-吴海英。(932772445)</t>
-  </si>
-  <si>
-    <t>๑˙ー˙๑懵石子(1241539404)</t>
-  </si>
-  <si>
-    <t>此时此刻的云 二十来岁的(1032725610)</t>
-  </si>
-  <si>
-    <t>(2928161289)</t>
-  </si>
-  <si>
-    <t>Hehhjk(1827843091)</t>
-  </si>
-  <si>
-    <t>越努力 越幸运(1162902922)</t>
-  </si>
-  <si>
-    <t>Yesterday(847143652)</t>
-  </si>
-  <si>
-    <t>`M'aster(522156844)</t>
-  </si>
-  <si>
-    <t>大街小巷''(565759084)</t>
+    <t>1210545829(1210545829)</t>
+  </si>
+  <si>
+    <t>给咖啡加点盐(1776802386)</t>
+  </si>
+  <si>
+    <t>just a loser(3432725894)</t>
+  </si>
+  <si>
+    <t>🍭(442511735)</t>
+  </si>
+  <si>
+    <t>957158256(957158256)</t>
+  </si>
+  <si>
+    <t>小角儿(2845312245)</t>
+  </si>
+  <si>
+    <t>brilliant(852415491)</t>
+  </si>
+  <si>
+    <t>凌云志(1741607086)</t>
   </si>
   <si>
     <t>ctrl+s(654705193)</t>
   </si>
   <si>
-    <t>给咖啡加点盐(1776802386)</t>
+    <t>现代教育技术(1294520877)</t>
+  </si>
+  <si>
+    <t>旭(819069359)</t>
+  </si>
+  <si>
+    <t>970139314(970139314)</t>
+  </si>
+  <si>
+    <t>诚信(1239949433)</t>
+  </si>
+  <si>
+    <t>1984604486(1984604486)</t>
+  </si>
+  <si>
+    <t>小时候*^_^*(807490863)</t>
   </si>
   <si>
     <t>Sunday(2661528418)</t>
   </si>
   <si>
-    <t>brilliant(852415491)</t>
-  </si>
-  <si>
-    <t>现代教育技术(1294520877)</t>
-  </si>
-  <si>
-    <t>970139314(970139314)</t>
-  </si>
-  <si>
-    <t>诚信(1239949433)</t>
-  </si>
-  <si>
-    <t>1210545829(1210545829)</t>
-  </si>
-  <si>
-    <t>小角儿(2845312245)</t>
-  </si>
-  <si>
-    <t>1984604486(1984604486)</t>
-  </si>
-  <si>
-    <t>957158256(957158256)</t>
-  </si>
-  <si>
-    <t>凌云志(1741607086)</t>
-  </si>
-  <si>
-    <t>🍭(442511735)</t>
-  </si>
-  <si>
-    <t>just a loser(3432725894)</t>
-  </si>
-  <si>
-    <t>旭(819069359)</t>
-  </si>
-  <si>
-    <t>小时候*^_^*(807490863)</t>
+    <t>(2685949972)</t>
+  </si>
+  <si>
+    <t>18教育技术(1620957933)</t>
+  </si>
+  <si>
+    <t>MY  *LoVe*(1094534358)</t>
+  </si>
+  <si>
+    <t>。。(1006899020)</t>
+  </si>
+  <si>
+    <t>(2396341551)</t>
+  </si>
+  <si>
+    <t>(1174965189)</t>
+  </si>
+  <si>
+    <t>L_兔小灰(1772667705)</t>
+  </si>
+  <si>
+    <t>。(1344263164)</t>
+  </si>
+  <si>
+    <t>DISTANCE(2839895870)</t>
+  </si>
+  <si>
+    <t>Stonegarlic(1650992907)</t>
+  </si>
+  <si>
+    <t>1511494747(1511494747)</t>
+  </si>
+  <si>
+    <t>水   墨   青   花(1784886866)</t>
+  </si>
+  <si>
+    <t>(565759084)</t>
+  </si>
+  <si>
+    <t>DD(810712967)</t>
+  </si>
+  <si>
+    <t>Prestigious Firefly(1115236369)</t>
+  </si>
+  <si>
+    <t>🌺PYQYTT🌺(1838580985)</t>
+  </si>
+  <si>
+    <t>幸福很简单😄(1277940729)</t>
+  </si>
+  <si>
+    <t>只是#为了你(1416798557)</t>
+  </si>
+  <si>
+    <t>Seven(1299737803)</t>
+  </si>
+  <si>
+    <t>如果你愿意去给河马刷牙。(840590962)</t>
+  </si>
+  <si>
+    <t>(1242975495)</t>
+  </si>
+  <si>
+    <t>青色花(1034336554)</t>
+  </si>
+  <si>
+    <t>爱の味（思念）(961335326)</t>
+  </si>
+  <si>
+    <t>紫云雪凝(2296304042)</t>
+  </si>
+  <si>
+    <t>针(1745996805)</t>
+  </si>
+  <si>
+    <t>晴晨朗暮(1422665168)</t>
+  </si>
+  <si>
+    <t>2896078156(2896078156)</t>
+  </si>
+  <si>
+    <t>1784054339(1784054339)</t>
+  </si>
+  <si>
+    <t>张弓搭箭(284688288)</t>
+  </si>
+  <si>
+    <t>2928161289(2928161289)</t>
+  </si>
+  <si>
+    <t>(1743147231)</t>
+  </si>
+  <si>
+    <t>空空狐(1241663874)</t>
+  </si>
+  <si>
+    <t>1915238009(1915238009)</t>
+  </si>
+  <si>
+    <t>silence(1224506701)</t>
   </si>
   <si>
     <t>🐙📄🍎(1542537253)</t>
   </si>
   <si>
-    <t>空空狐(1241663874)</t>
-  </si>
-  <si>
-    <t>(1743147231)</t>
-  </si>
-  <si>
-    <t>1784054339(1784054339)</t>
-  </si>
-  <si>
-    <t>晴晨朗暮(1422665168)</t>
-  </si>
-  <si>
-    <t>(2396341551)</t>
-  </si>
-  <si>
-    <t>紫云雪凝(2296304042)</t>
+    <t>1224506701(1224506701)</t>
   </si>
   <si>
     <t>一匹马赛克♚(454096356)</t>
   </si>
   <si>
-    <t>(2685949972)</t>
-  </si>
-  <si>
-    <t>Seven(1299737803)</t>
-  </si>
-  <si>
-    <t>Prestigious Firefly(1115236369)</t>
-  </si>
-  <si>
-    <t>Stonegarlic(1650992907)</t>
-  </si>
-  <si>
-    <t>只是#为了你(1416798557)</t>
-  </si>
-  <si>
-    <t>张弓搭箭(284688288)</t>
-  </si>
-  <si>
-    <t>(1242975495)</t>
-  </si>
-  <si>
-    <t>DISTANCE(2839895870)</t>
-  </si>
-  <si>
-    <t>幸福很简单😄(1277940729)</t>
-  </si>
-  <si>
-    <t>(1174965189)</t>
-  </si>
-  <si>
-    <t>针(1745996805)</t>
-  </si>
-  <si>
-    <t>2896078156(2896078156)</t>
-  </si>
-  <si>
-    <t>silence(1224506701)</t>
-  </si>
-  <si>
-    <t>1511494747(1511494747)</t>
-  </si>
-  <si>
-    <t>。。(1006899020)</t>
-  </si>
-  <si>
-    <t>2928161289(2928161289)</t>
-  </si>
-  <si>
-    <t>(565759084)</t>
-  </si>
-  <si>
-    <t>1915238009(1915238009)</t>
-  </si>
-  <si>
-    <t>水   墨   青   花(1784886866)</t>
-  </si>
-  <si>
-    <t>如果你愿意去给河马刷牙。(840590962)</t>
-  </si>
-  <si>
-    <t>MY  *LoVe*(1094534358)</t>
-  </si>
-  <si>
-    <t>🌺PYQYTT🌺(1838580985)</t>
-  </si>
-  <si>
-    <t>18教育技术(1620957933)</t>
-  </si>
-  <si>
-    <t>爱の味（思念）(961335326)</t>
-  </si>
-  <si>
-    <t>L_兔小灰(1772667705)</t>
-  </si>
-  <si>
-    <t>。(1344263164)</t>
-  </si>
-  <si>
-    <t>1224506701(1224506701)</t>
-  </si>
-  <si>
-    <t>青色花(1034336554)</t>
-  </si>
-  <si>
-    <t>DD(810712967)</t>
+    <t>Dandelions(1142159389)</t>
+  </si>
+  <si>
+    <t>(614490691)</t>
+  </si>
+  <si>
+    <t>(2475285079)</t>
+  </si>
+  <si>
+    <t>(1210545829)</t>
+  </si>
+  <si>
+    <t>245695702(245695702)</t>
+  </si>
+  <si>
+    <t>袁艺双(2661528418)</t>
+  </si>
+  <si>
+    <t>山 鸡。、(861306182)</t>
+  </si>
+  <si>
+    <t>(957158256)</t>
+  </si>
+  <si>
+    <t>飛钬鎏天(1394121224)</t>
+  </si>
+  <si>
+    <t>COMPASSES(1921354189)</t>
+  </si>
+  <si>
+    <t>(1043445531)</t>
+  </si>
+  <si>
+    <t>17届(1184356775)</t>
+  </si>
+  <si>
+    <t>系统消息(1000000)</t>
+  </si>
+  <si>
+    <t>范特莱特(778746618)</t>
+  </si>
+  <si>
+    <t>1083463827(1083463827)</t>
+  </si>
+  <si>
+    <t>(1915238009)</t>
+  </si>
+  <si>
+    <t>(2110401398)</t>
+  </si>
+  <si>
+    <t>Keeping  -forever(1305120310)</t>
+  </si>
+  <si>
+    <t>654705193(654705193)</t>
+  </si>
+  <si>
+    <t>宁夏(2643159023)</t>
+  </si>
+  <si>
+    <t>(522156844)</t>
+  </si>
+  <si>
+    <t>2572955597(2572955597)</t>
+  </si>
+  <si>
+    <t>(664097267)</t>
+  </si>
+  <si>
+    <t>(1397755301)</t>
+  </si>
+  <si>
+    <t>韩晶晶(1724226940)</t>
+  </si>
+  <si>
+    <t>米虫(1373859151)</t>
+  </si>
+  <si>
+    <t>≈咕叽咕叽🐳(735179175)</t>
+  </si>
+  <si>
+    <t>2633180732(2633180732)</t>
+  </si>
+  <si>
+    <t>(2223618247)</t>
+  </si>
+  <si>
+    <t>(1984604486)</t>
+  </si>
+  <si>
+    <t>小牙套龙猫i(1277808615)</t>
+  </si>
+  <si>
+    <t>如癡如醉的梦(1587113775)</t>
+  </si>
+  <si>
+    <t>等一朵花开(3176309978)</t>
+  </si>
+  <si>
+    <t>(591432218)</t>
+  </si>
+  <si>
+    <t>西西舒(809054374)</t>
+  </si>
+  <si>
+    <t>灿烂千阳(1499851159)</t>
+  </si>
+  <si>
+    <t>(245695702)</t>
+  </si>
+  <si>
+    <t>Sun(591983163)</t>
+  </si>
+  <si>
+    <t>(892852910)</t>
+  </si>
+  <si>
+    <t>(1129782826)</t>
+  </si>
+  <si>
+    <t>roach(962746955)</t>
+  </si>
+  <si>
+    <t>(787065816)</t>
+  </si>
+  <si>
+    <t>1301班张阳莉(772106763)</t>
+  </si>
+  <si>
+    <t>(904871848)</t>
+  </si>
+  <si>
+    <t>离线中•﹏•(1134566393)</t>
+  </si>
+  <si>
+    <t>秋轩(362713501)</t>
+  </si>
+  <si>
+    <t>雨天囡囡(270415610)</t>
+  </si>
+  <si>
+    <t>(970139314)</t>
+  </si>
+  <si>
+    <t>筱`然儿(649617133)</t>
+  </si>
+  <si>
+    <t>つ情如初见╮(571718178)</t>
+  </si>
+  <si>
+    <t>(1745996805)</t>
+  </si>
+  <si>
+    <t>哎呦威(2249621596)</t>
+  </si>
+  <si>
+    <t>(1690949570)</t>
+  </si>
+  <si>
+    <t>(2621256871)</t>
+  </si>
+  <si>
+    <t>411453535(411453535)</t>
+  </si>
+  <si>
+    <t>蒲公樱.(348016231)</t>
+  </si>
+  <si>
+    <t>安然anr(2756989348)</t>
+  </si>
+  <si>
+    <t>依然(1411508114)</t>
+  </si>
+  <si>
+    <t>😧(297863069)</t>
+  </si>
+  <si>
+    <t>留胡渣的硬汉(860485645)</t>
+  </si>
+  <si>
+    <t>☞尚尚 签(2078159179)</t>
+  </si>
+  <si>
+    <t>17现代教育技术 羊羊羊(504374704)</t>
+  </si>
+  <si>
+    <t>kirito(2350076082)</t>
+  </si>
+  <si>
+    <t>叮叮当(1655484635)</t>
+  </si>
+  <si>
+    <t>syd@七哥(545520443)</t>
+  </si>
+  <si>
+    <t>同一个梦想(1040500460)</t>
+  </si>
+  <si>
+    <t>(1784054339)</t>
+  </si>
+  <si>
+    <t>lily _an(694893590)</t>
+  </si>
+  <si>
+    <t>(291508839)</t>
+  </si>
+  <si>
+    <t>주류(741903190)</t>
+  </si>
+  <si>
+    <t>(809054374)</t>
   </si>
   <si>
     <t>张慧(1451996420)</t>
   </si>
   <si>
-    <t>(2110401398)</t>
-  </si>
-  <si>
-    <t>蒲公樱.(348016231)</t>
-  </si>
-  <si>
-    <t>米虫(1373859151)</t>
-  </si>
-  <si>
-    <t>17届(1184356775)</t>
-  </si>
-  <si>
-    <t>等一朵花开(3176309978)</t>
-  </si>
-  <si>
-    <t>(245695702)</t>
+    <t>风华正茂(2542208637)</t>
+  </si>
+  <si>
+    <t>(1224506701)</t>
+  </si>
+  <si>
+    <t>(454096356)</t>
+  </si>
+  <si>
+    <t>想子(1614184081)</t>
+  </si>
+  <si>
+    <t>℡在乎不曾在乎的(1506725501)</t>
+  </si>
+  <si>
+    <t>Z + +(411453535)</t>
   </si>
   <si>
     <t>YJ.C(497596161)</t>
   </si>
   <si>
-    <t>(787065816)</t>
-  </si>
-  <si>
-    <t>(291508839)</t>
-  </si>
-  <si>
-    <t>17现代教育技术 羊羊羊(504374704)</t>
-  </si>
-  <si>
-    <t>飛钬鎏天(1394121224)</t>
-  </si>
-  <si>
-    <t>2572955597(2572955597)</t>
-  </si>
-  <si>
-    <t>(892852910)</t>
-  </si>
-  <si>
-    <t>syd@七哥(545520443)</t>
-  </si>
-  <si>
-    <t>雨天囡囡(270415610)</t>
-  </si>
-  <si>
-    <t>筱`然儿(649617133)</t>
-  </si>
-  <si>
-    <t>西西舒(809054374)</t>
-  </si>
-  <si>
-    <t>kirito(2350076082)</t>
-  </si>
-  <si>
-    <t>Keeping  -forever(1305120310)</t>
-  </si>
-  <si>
-    <t>(1043445531)</t>
-  </si>
-  <si>
-    <t>(1129782826)</t>
-  </si>
-  <si>
-    <t>(454096356)</t>
-  </si>
-  <si>
-    <t>安然anr(2756989348)</t>
-  </si>
-  <si>
-    <t>(957158256)</t>
-  </si>
-  <si>
-    <t>范特莱特(778746618)</t>
-  </si>
-  <si>
-    <t>つ情如初见╮(571718178)</t>
-  </si>
-  <si>
-    <t>1301班张阳莉(772106763)</t>
-  </si>
-  <si>
-    <t>(1224506701)</t>
-  </si>
-  <si>
-    <t>℡在乎不曾在乎的(1506725501)</t>
-  </si>
-  <si>
-    <t>654705193(654705193)</t>
-  </si>
-  <si>
-    <t>(1745996805)</t>
-  </si>
-  <si>
-    <t>(1210545829)</t>
-  </si>
-  <si>
-    <t>411453535(411453535)</t>
-  </si>
-  <si>
-    <t>Sun(591983163)</t>
-  </si>
-  <si>
-    <t>(591432218)</t>
-  </si>
-  <si>
-    <t>(614490691)</t>
-  </si>
-  <si>
-    <t>roach(962746955)</t>
-  </si>
-  <si>
-    <t>(904871848)</t>
-  </si>
-  <si>
-    <t>叮叮当(1655484635)</t>
-  </si>
-  <si>
-    <t>风华正茂(2542208637)</t>
-  </si>
-  <si>
-    <t>秋轩(362713501)</t>
-  </si>
-  <si>
-    <t>(2621256871)</t>
-  </si>
-  <si>
-    <t>(1690949570)</t>
-  </si>
-  <si>
-    <t>宁夏(2643159023)</t>
-  </si>
-  <si>
-    <t>(970139314)</t>
-  </si>
-  <si>
-    <t>(522156844)</t>
-  </si>
-  <si>
-    <t>(809054374)</t>
-  </si>
-  <si>
-    <t>☞尚尚 签(2078159179)</t>
-  </si>
-  <si>
-    <t>依然(1411508114)</t>
-  </si>
-  <si>
-    <t>2633180732(2633180732)</t>
-  </si>
-  <si>
-    <t>袁艺双(2661528418)</t>
-  </si>
-  <si>
-    <t>灿烂千阳(1499851159)</t>
-  </si>
-  <si>
-    <t>(2223618247)</t>
-  </si>
-  <si>
-    <t>想子(1614184081)</t>
-  </si>
-  <si>
-    <t>韩晶晶(1724226940)</t>
-  </si>
-  <si>
-    <t>(1984604486)</t>
-  </si>
-  <si>
-    <t>山 鸡。、(861306182)</t>
-  </si>
-  <si>
-    <t>(1784054339)</t>
-  </si>
-  <si>
-    <t>系统消息(1000000)</t>
-  </si>
-  <si>
-    <t>Dandelions(1142159389)</t>
-  </si>
-  <si>
-    <t>(1397755301)</t>
-  </si>
-  <si>
-    <t>(664097267)</t>
-  </si>
-  <si>
-    <t>😧(297863069)</t>
-  </si>
-  <si>
-    <t>哎呦威(2249621596)</t>
-  </si>
-  <si>
-    <t>lily _an(694893590)</t>
-  </si>
-  <si>
-    <t>245695702(245695702)</t>
-  </si>
-  <si>
-    <t>同一个梦想(1040500460)</t>
-  </si>
-  <si>
-    <t>주류(741903190)</t>
-  </si>
-  <si>
-    <t>留胡渣的硬汉(860485645)</t>
-  </si>
-  <si>
-    <t>≈咕叽咕叽🐳(735179175)</t>
-  </si>
-  <si>
-    <t>(1915238009)</t>
-  </si>
-  <si>
-    <t>小牙套龙猫i(1277808615)</t>
-  </si>
-  <si>
-    <t>Z + +(411453535)</t>
-  </si>
-  <si>
-    <t>1083463827(1083463827)</t>
-  </si>
-  <si>
-    <t>COMPASSES(1921354189)</t>
-  </si>
-  <si>
-    <t>离线中•﹏•(1134566393)</t>
-  </si>
-  <si>
-    <t>(2475285079)</t>
-  </si>
-  <si>
-    <t>如癡如醉的梦(1587113775)</t>
-  </si>
-  <si>
     <t>词汇</t>
   </si>
   <si>
@@ -813,115 +813,115 @@
     <t>湖北</t>
   </si>
   <si>
+    <t>长度</t>
+  </si>
+  <si>
     <t>中国</t>
   </si>
   <si>
-    <t>长度</t>
-  </si>
-  <si>
     <t>湖北省</t>
   </si>
   <si>
     <t>华东</t>
   </si>
   <si>
+    <t>济州岛</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
     <t>重庆</t>
   </si>
   <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>陕</t>
+  </si>
+  <si>
     <t>浙大</t>
   </si>
   <si>
-    <t>济州岛</t>
-  </si>
-  <si>
     <t>河北省</t>
   </si>
   <si>
-    <t>陕</t>
-  </si>
-  <si>
     <t>四本</t>
   </si>
   <si>
     <t>东西</t>
   </si>
   <si>
-    <t>北京</t>
-  </si>
-  <si>
     <t>河北</t>
   </si>
   <si>
-    <t>江西</t>
+    <t>哈</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>华山</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>琉</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>城市</t>
   </si>
   <si>
     <t>陕西</t>
   </si>
   <si>
-    <t>城市</t>
-  </si>
-  <si>
     <t>上门</t>
   </si>
   <si>
+    <t>米苏</t>
+  </si>
+  <si>
+    <t>远超过</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>华南</t>
+  </si>
+  <si>
+    <t>开朗</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>南湖</t>
+  </si>
+  <si>
+    <t>伊河</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>西南</t>
+  </si>
+  <si>
     <t>山西</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>开朗</t>
-  </si>
-  <si>
-    <t>南湖</t>
-  </si>
-  <si>
-    <t>伊河</t>
-  </si>
-  <si>
-    <t>远超过</t>
-  </si>
-  <si>
-    <t>哈</t>
-  </si>
-  <si>
-    <t>太阳</t>
-  </si>
-  <si>
-    <t>河南</t>
-  </si>
-  <si>
-    <t>西南</t>
-  </si>
-  <si>
-    <t>华南</t>
-  </si>
-  <si>
-    <t>外国</t>
-  </si>
-  <si>
-    <t>北</t>
-  </si>
-  <si>
-    <t>青</t>
-  </si>
-  <si>
-    <t>琉</t>
-  </si>
-  <si>
-    <t>米苏</t>
-  </si>
-  <si>
-    <t>四川</t>
-  </si>
-  <si>
-    <t>华山</t>
-  </si>
-  <si>
-    <t>深度</t>
   </si>
 </sst>
 </file>

--- a/src/out/20172018华中师大教技群.xlsx
+++ b/src/out/20172018华中师大教技群.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="352">
   <si>
     <t>时间</t>
   </si>
@@ -105,52 +105,70 @@
     <t>美酒爱尔兰(1083463827)</t>
   </si>
   <si>
+    <t>ヅ緈运的泪(451367682)</t>
+  </si>
+  <si>
+    <t>锤锤(512532075)</t>
+  </si>
+  <si>
     <t>Fireflies(1745996805)</t>
   </si>
   <si>
-    <t>ヅ緈运的泪(451367682)</t>
-  </si>
-  <si>
-    <t>锤锤(512532075)</t>
+    <t>⊙▽⊙ 懵～～(2722386083)</t>
+  </si>
+  <si>
+    <t>漂萍(1697736800)</t>
+  </si>
+  <si>
+    <t>♛｀继续丶现在♚(109000303)</t>
   </si>
   <si>
     <t>(80000000)</t>
   </si>
   <si>
-    <t>♛｀继续丶现在♚(109000303)</t>
-  </si>
-  <si>
     <t>画地为牢(543667665)</t>
   </si>
   <si>
-    <t>漂萍(1697736800)</t>
+    <t>大米饭(614490691)</t>
+  </si>
+  <si>
+    <t>sunshine(937575432)</t>
+  </si>
+  <si>
+    <t>づ思念、漫过我的城(1129782826)</t>
+  </si>
+  <si>
+    <t>13教技张月(1032340257)</t>
+  </si>
+  <si>
+    <t>系统消息(10000)</t>
   </si>
   <si>
     <t>她说(1103870652)</t>
   </si>
   <si>
-    <t>⊙▽⊙ 懵～～(2722386083)</t>
-  </si>
-  <si>
-    <t>sunshine(937575432)</t>
-  </si>
-  <si>
-    <t>系统消息(10000)</t>
+    <t>怦然心动(793484958)</t>
   </si>
   <si>
     <t>Emotion°(1609961923)</t>
   </si>
   <si>
+    <t>^-^橘子(2842354753)</t>
+  </si>
+  <si>
     <t>Na Na Na(970139314)</t>
   </si>
   <si>
-    <t>^-^橘子(2842354753)</t>
+    <t>Unique(386358455)</t>
   </si>
   <si>
     <t>墨墨(554068550)</t>
   </si>
   <si>
-    <t>13教技张月(1032340257)</t>
+    <t>猫猫如意(1054129339)</t>
+  </si>
+  <si>
+    <t>黄健&lt;huangjian5931@qq.com&gt;</t>
   </si>
   <si>
     <t>灯半昏时(1032340257)</t>
@@ -159,648 +177,732 @@
     <t>我和小麦本家(1174965189)</t>
   </si>
   <si>
-    <t>大米饭(614490691)</t>
+    <t>紀小純(786375754)</t>
+  </si>
+  <si>
+    <t>Z(523209129)</t>
+  </si>
+  <si>
+    <t>仙人掌(2023234587)</t>
+  </si>
+  <si>
+    <t>han(1184762792)</t>
   </si>
   <si>
     <t>南山南(1783586417)</t>
   </si>
   <si>
-    <t>仙人掌(2023234587)</t>
+    <t>麒(172404460)</t>
+  </si>
+  <si>
+    <t>1301陈紫欣(2010719010)</t>
+  </si>
+  <si>
+    <t>漫同学(2685949972)</t>
+  </si>
+  <si>
+    <t>寂静欢喜(1047793182)</t>
   </si>
   <si>
     <t>右手年华(1169389895)</t>
   </si>
   <si>
-    <t>漫同学(2685949972)</t>
-  </si>
-  <si>
-    <t>han(1184762792)</t>
-  </si>
-  <si>
-    <t>づ思念、漫过我的城(1129782826)</t>
+    <t>馨_梦_缘(2380632272)</t>
+  </si>
+  <si>
+    <t>づ Alice  、(291508839)</t>
+  </si>
+  <si>
+    <t>주류(741903190)</t>
+  </si>
+  <si>
+    <t>指尖划过(1506645431)</t>
+  </si>
+  <si>
+    <t>左然莫奈(1690949570)</t>
   </si>
   <si>
     <t>环大帝(1776802386)</t>
   </si>
   <si>
-    <t>Z(523209129)</t>
-  </si>
-  <si>
     <t>kaoklai(2110401398)</t>
   </si>
   <si>
-    <t>指尖划过(1506645431)</t>
-  </si>
-  <si>
-    <t>馨_梦_缘(2380632272)</t>
+    <t>苗苗(599153085)</t>
+  </si>
+  <si>
+    <t>Flavor﹌○﹌(937265124)</t>
+  </si>
+  <si>
+    <t>844764041(844764041)</t>
   </si>
   <si>
     <t>(1609961923)</t>
   </si>
   <si>
-    <t>844764041(844764041)</t>
-  </si>
-  <si>
     <t>Daisy**(1351462450)</t>
   </si>
   <si>
-    <t>づ Alice  、(291508839)</t>
-  </si>
-  <si>
-    <t>寂静欢喜(1047793182)</t>
-  </si>
-  <si>
-    <t>Flavor﹌○﹌(937265124)</t>
+    <t>柚子(78006689)</t>
+  </si>
+  <si>
+    <t>Seal＆Post(1984604486)</t>
+  </si>
+  <si>
+    <t>辛鑫鑫#且听风吟(1402571788)</t>
+  </si>
+  <si>
+    <t>我当仙女很久了&lt;niuniu784364039@qq.com&gt;</t>
+  </si>
+  <si>
+    <t>(545520443)</t>
+  </si>
+  <si>
+    <t>大街小巷''(565759084)</t>
+  </si>
+  <si>
+    <t>芳土中的金色記憶(1272240185)</t>
+  </si>
+  <si>
+    <t>18教育技术(1620957933)</t>
+  </si>
+  <si>
+    <t>￣聽、雨茬丅(1229727136)</t>
+  </si>
+  <si>
+    <t>(654705193)</t>
+  </si>
+  <si>
+    <t>(778746618)</t>
   </si>
   <si>
     <t>橘子黄时(1622394719)</t>
   </si>
   <si>
+    <t>水瑈(1210545829)</t>
+  </si>
+  <si>
     <t>(2316605517)</t>
   </si>
   <si>
+    <t>93号(1733004832)</t>
+  </si>
+  <si>
     <t>青稞(1837693345)</t>
   </si>
   <si>
-    <t>水瑈(1210545829)</t>
-  </si>
-  <si>
-    <t>(654705193)</t>
-  </si>
-  <si>
-    <t>猫猫如意(1054129339)</t>
-  </si>
-  <si>
-    <t>(545520443)</t>
-  </si>
-  <si>
-    <t>(778746618)</t>
+    <t>Serena-fragrans 🌻(295709662)</t>
   </si>
   <si>
     <t>意乐(2928161289)</t>
   </si>
   <si>
+    <t>(844764041)</t>
+  </si>
+  <si>
+    <t>囡囡小米(1187516892)</t>
+  </si>
+  <si>
+    <t>lemon酸(1187264181)</t>
+  </si>
+  <si>
+    <t>清风★竹韵(2232770495)</t>
+  </si>
+  <si>
     <t>💤(297863069)</t>
   </si>
   <si>
-    <t>lemon酸(1187264181)</t>
-  </si>
-  <si>
-    <t>麒(172404460)</t>
+    <t>一只能唱会跳的DC🐮(892852910)</t>
+  </si>
+  <si>
+    <t>风华正茂(2542208637)</t>
   </si>
   <si>
     <t>漂洋过海来看你(844764041)</t>
   </si>
   <si>
-    <t>(844764041)</t>
-  </si>
-  <si>
     <t>––––(1041621651)</t>
   </si>
   <si>
-    <t>柚子(78006689)</t>
-  </si>
-  <si>
-    <t>一只能唱会跳的DC🐮(892852910)</t>
+    <t>Hehhjk(1827843091)</t>
+  </si>
+  <si>
+    <t>小小小志(419825855)</t>
+  </si>
+  <si>
+    <t>不要说话(1914826709)</t>
+  </si>
+  <si>
+    <t>restart(1311449671)</t>
+  </si>
+  <si>
+    <t>3432725894(3432725894)</t>
   </si>
   <si>
     <t>1174965189(1174965189)</t>
   </si>
   <si>
-    <t>怦然心动(793484958)</t>
-  </si>
-  <si>
-    <t>小小小志(419825855)</t>
+    <t>(1083463827)</t>
+  </si>
+  <si>
+    <t>现代教育技术(1294520877)</t>
   </si>
   <si>
     <t>梨✌予君旁(1054474730)</t>
   </si>
   <si>
-    <t>3432725894(3432725894)</t>
-  </si>
-  <si>
-    <t>93号(1733004832)</t>
+    <t>千寻瀑(957936238)</t>
   </si>
   <si>
     <t>清玲之恋(1101314653)</t>
   </si>
   <si>
-    <t>(1083463827)</t>
-  </si>
-  <si>
-    <t>不要说话(1914826709)</t>
-  </si>
-  <si>
-    <t>千寻瀑(957936238)</t>
-  </si>
-  <si>
-    <t>左然莫奈(1690949570)</t>
-  </si>
-  <si>
-    <t>芳土中的金色記憶(1272240185)</t>
-  </si>
-  <si>
-    <t>restart(1311449671)</t>
+    <t>王家七大少(2092253097)</t>
+  </si>
+  <si>
+    <t>吾心永恒👲(2685718613)</t>
+  </si>
+  <si>
+    <t>🍭(442511735)</t>
   </si>
   <si>
     <t>(78006689)</t>
   </si>
   <si>
-    <t>王家七大少(2092253097)</t>
+    <t>安安(1784054339)</t>
+  </si>
+  <si>
+    <t>WSS (^V^)(1594288422)</t>
+  </si>
+  <si>
+    <t>^Secretofmyboy(1831844901)</t>
+  </si>
+  <si>
+    <t>一匹马赛克♚(454096356)</t>
   </si>
   <si>
     <t>做个简单的薯片😝(1743147231)</t>
   </si>
   <si>
-    <t>安安(1784054339)</t>
-  </si>
-  <si>
-    <t>吾心永恒👲(2685718613)</t>
+    <t>鑫鑫蔷薇墙(1272240185)</t>
+  </si>
+  <si>
+    <t>越努力 越幸运(1162902922)</t>
+  </si>
+  <si>
+    <t>(3432725894)</t>
+  </si>
+  <si>
+    <t>可乐粉里的青花瓷(2714103049)</t>
   </si>
   <si>
     <t>づ思念、漫过我的城&lt;spygzeq@foxmail.com&gt;</t>
   </si>
   <si>
+    <t>蕶(957158256)</t>
+  </si>
+  <si>
+    <t>1129782826(1129782826)</t>
+  </si>
+  <si>
+    <t>(2232770495)</t>
+  </si>
+  <si>
+    <t>诚信(1239949433)</t>
+  </si>
+  <si>
     <t>时光凉人心(2396341551)</t>
   </si>
   <si>
-    <t>1129782826(1129782826)</t>
+    <t>(951060679)</t>
   </si>
   <si>
     <t>Daisy(1298147864)</t>
   </si>
   <si>
+    <t>just a loser(3432725894)</t>
+  </si>
+  <si>
     <t>(1776802386)</t>
   </si>
   <si>
-    <t>可乐粉里的青花瓷(2714103049)</t>
-  </si>
-  <si>
     <t>地瓜你个烤番薯 🍉(860485645)</t>
   </si>
   <si>
-    <t>(951060679)</t>
-  </si>
-  <si>
-    <t>^Secretofmyboy(1831844901)</t>
-  </si>
-  <si>
-    <t>Unique(386358455)</t>
-  </si>
-  <si>
-    <t>1301陈紫欣(2010719010)</t>
-  </si>
-  <si>
-    <t>(3432725894)</t>
-  </si>
-  <si>
-    <t>Seal＆Post(1984604486)</t>
-  </si>
-  <si>
-    <t>蕶(957158256)</t>
+    <t>瘦子不瘦(1063358788)</t>
+  </si>
+  <si>
+    <t>如果你愿意去给河马刷牙。(840590962)</t>
+  </si>
+  <si>
+    <t>1301-吴海英。(932772445)</t>
   </si>
   <si>
     <t>花落.自相惜(1037898131)</t>
   </si>
   <si>
+    <t>Yesterday(847143652)</t>
+  </si>
+  <si>
+    <t>流萤(1745996805)</t>
+  </si>
+  <si>
+    <t>少说话多看书！(951060679)</t>
+  </si>
+  <si>
+    <t>(2010719010)</t>
+  </si>
+  <si>
     <t>๑˙ー˙๑懵石子(1241539404)</t>
   </si>
   <si>
+    <t>针(1745996805)</t>
+  </si>
+  <si>
+    <t>`M'aster(522156844)</t>
+  </si>
+  <si>
     <t>(2928161289)</t>
   </si>
   <si>
-    <t>WSS (^V^)(1594288422)</t>
-  </si>
-  <si>
-    <t>Hehhjk(1827843091)</t>
-  </si>
-  <si>
-    <t>越努力 越幸运(1162902922)</t>
-  </si>
-  <si>
-    <t>Yesterday(847143652)</t>
-  </si>
-  <si>
-    <t>1301-吴海英。(932772445)</t>
-  </si>
-  <si>
-    <t>流萤(1745996805)</t>
-  </si>
-  <si>
     <t>此时此刻的云 二十来岁的(1032725610)</t>
   </si>
   <si>
-    <t>`M'aster(522156844)</t>
-  </si>
-  <si>
-    <t>(2010719010)</t>
-  </si>
-  <si>
-    <t>大街小巷''(565759084)</t>
-  </si>
-  <si>
     <t>我当仙女很久了(784364039)</t>
   </si>
   <si>
-    <t>少说话多看书！(951060679)</t>
+    <t>Jack L(1986106726)</t>
+  </si>
+  <si>
+    <t>旭(819069359)</t>
+  </si>
+  <si>
+    <t>系统消息(1000000)</t>
+  </si>
+  <si>
+    <t>1984604486(1984604486)</t>
   </si>
   <si>
     <t>1210545829(1210545829)</t>
   </si>
   <si>
+    <t>小时候*^_^*(807490863)</t>
+  </si>
+  <si>
+    <t>970139314(970139314)</t>
+  </si>
+  <si>
+    <t>小熹(809054374)</t>
+  </si>
+  <si>
+    <t>湖南一师 丁青(1344263164)</t>
+  </si>
+  <si>
+    <t>957158256(957158256)</t>
+  </si>
+  <si>
+    <t>凌云志(1741607086)</t>
+  </si>
+  <si>
+    <t>lily _an(694893590)</t>
+  </si>
+  <si>
+    <t>Sunday(2661528418)</t>
+  </si>
+  <si>
+    <t>小角儿(2845312245)</t>
+  </si>
+  <si>
+    <t>brilliant(852415491)</t>
+  </si>
+  <si>
+    <t>(476140671)</t>
+  </si>
+  <si>
+    <t>ctrl+s(654705193)</t>
+  </si>
+  <si>
+    <t>L_兔小灰(1772667705)</t>
+  </si>
+  <si>
     <t>给咖啡加点盐(1776802386)</t>
   </si>
   <si>
-    <t>just a loser(3432725894)</t>
-  </si>
-  <si>
-    <t>🍭(442511735)</t>
-  </si>
-  <si>
-    <t>957158256(957158256)</t>
-  </si>
-  <si>
-    <t>小角儿(2845312245)</t>
-  </si>
-  <si>
-    <t>brilliant(852415491)</t>
-  </si>
-  <si>
-    <t>凌云志(1741607086)</t>
-  </si>
-  <si>
-    <t>ctrl+s(654705193)</t>
-  </si>
-  <si>
-    <t>现代教育技术(1294520877)</t>
-  </si>
-  <si>
-    <t>旭(819069359)</t>
-  </si>
-  <si>
-    <t>970139314(970139314)</t>
-  </si>
-  <si>
-    <t>诚信(1239949433)</t>
-  </si>
-  <si>
-    <t>1984604486(1984604486)</t>
-  </si>
-  <si>
-    <t>小时候*^_^*(807490863)</t>
-  </si>
-  <si>
-    <t>Sunday(2661528418)</t>
+    <t>。。(1006899020)</t>
+  </si>
+  <si>
+    <t>幸福很简单😄(1277940729)</t>
+  </si>
+  <si>
+    <t>水   墨   青   花(1784886866)</t>
+  </si>
+  <si>
+    <t>爱の味（思念）(961335326)</t>
+  </si>
+  <si>
+    <t>ゆ "淡然、回眸ゝ(1242975495)</t>
+  </si>
+  <si>
+    <t>张弓搭箭(284688288)</t>
+  </si>
+  <si>
+    <t>想子(1614184081)</t>
+  </si>
+  <si>
+    <t>只是#为了你(1416798557)</t>
+  </si>
+  <si>
+    <t>空空狐(1241663874)</t>
+  </si>
+  <si>
+    <t>silence(1224506701)</t>
+  </si>
+  <si>
+    <t>1915238009(1915238009)</t>
+  </si>
+  <si>
+    <t>(2396341551)</t>
+  </si>
+  <si>
+    <t>1784054339(1784054339)</t>
+  </si>
+  <si>
+    <t>Prestigious Firefly(1115236369)</t>
+  </si>
+  <si>
+    <t>Stonegarlic(1650992907)</t>
+  </si>
+  <si>
+    <t>1511494747(1511494747)</t>
+  </si>
+  <si>
+    <t>DD(810712967)</t>
+  </si>
+  <si>
+    <t>(1174965189)</t>
+  </si>
+  <si>
+    <t>🌺PYQYTT🌺(1838580985)</t>
+  </si>
+  <si>
+    <t>晴晨朗暮(1422665168)</t>
+  </si>
+  <si>
+    <t>(1743147231)</t>
+  </si>
+  <si>
+    <t>1224506701(1224506701)</t>
+  </si>
+  <si>
+    <t>紫云雪凝(2296304042)</t>
   </si>
   <si>
     <t>(2685949972)</t>
   </si>
   <si>
-    <t>18教育技术(1620957933)</t>
+    <t>DISTANCE(2839895870)</t>
+  </si>
+  <si>
+    <t>Seven(1299737803)</t>
+  </si>
+  <si>
+    <t>期待，明天(1208821126)</t>
+  </si>
+  <si>
+    <t>(565759084)</t>
+  </si>
+  <si>
+    <t>🐙📄🍎(1542537253)</t>
+  </si>
+  <si>
+    <t>(1242975495)</t>
   </si>
   <si>
     <t>MY  *LoVe*(1094534358)</t>
   </si>
   <si>
-    <t>。。(1006899020)</t>
-  </si>
-  <si>
-    <t>(2396341551)</t>
-  </si>
-  <si>
-    <t>(1174965189)</t>
-  </si>
-  <si>
-    <t>L_兔小灰(1772667705)</t>
+    <t>青色花(1034336554)</t>
+  </si>
+  <si>
+    <t>安然anr(2756989348)</t>
+  </si>
+  <si>
+    <t>Toaster(810849768)</t>
   </si>
   <si>
     <t>。(1344263164)</t>
   </si>
   <si>
-    <t>DISTANCE(2839895870)</t>
-  </si>
-  <si>
-    <t>Stonegarlic(1650992907)</t>
-  </si>
-  <si>
-    <t>1511494747(1511494747)</t>
-  </si>
-  <si>
-    <t>水   墨   青   花(1784886866)</t>
-  </si>
-  <si>
-    <t>(565759084)</t>
-  </si>
-  <si>
-    <t>DD(810712967)</t>
-  </si>
-  <si>
-    <t>Prestigious Firefly(1115236369)</t>
-  </si>
-  <si>
-    <t>🌺PYQYTT🌺(1838580985)</t>
-  </si>
-  <si>
-    <t>幸福很简单😄(1277940729)</t>
-  </si>
-  <si>
-    <t>只是#为了你(1416798557)</t>
-  </si>
-  <si>
-    <t>Seven(1299737803)</t>
-  </si>
-  <si>
-    <t>如果你愿意去给河马刷牙。(840590962)</t>
-  </si>
-  <si>
-    <t>(1242975495)</t>
-  </si>
-  <si>
-    <t>青色花(1034336554)</t>
-  </si>
-  <si>
-    <t>爱の味（思念）(961335326)</t>
-  </si>
-  <si>
-    <t>紫云雪凝(2296304042)</t>
-  </si>
-  <si>
-    <t>针(1745996805)</t>
-  </si>
-  <si>
-    <t>晴晨朗暮(1422665168)</t>
-  </si>
-  <si>
     <t>2896078156(2896078156)</t>
   </si>
   <si>
-    <t>1784054339(1784054339)</t>
-  </si>
-  <si>
-    <t>张弓搭箭(284688288)</t>
-  </si>
-  <si>
     <t>2928161289(2928161289)</t>
   </si>
   <si>
-    <t>(1743147231)</t>
-  </si>
-  <si>
-    <t>空空狐(1241663874)</t>
-  </si>
-  <si>
-    <t>1915238009(1915238009)</t>
-  </si>
-  <si>
-    <t>silence(1224506701)</t>
-  </si>
-  <si>
-    <t>🐙📄🍎(1542537253)</t>
-  </si>
-  <si>
-    <t>1224506701(1224506701)</t>
-  </si>
-  <si>
-    <t>一匹马赛克♚(454096356)</t>
+    <t>幽人琼月饮恨(1430499401)</t>
+  </si>
+  <si>
+    <t>小小(1418168422)</t>
+  </si>
+  <si>
+    <t>😧(297863069)</t>
+  </si>
+  <si>
+    <t>宁夏(2643159023)</t>
+  </si>
+  <si>
+    <t>(1129782826)</t>
+  </si>
+  <si>
+    <t>(522156844)</t>
+  </si>
+  <si>
+    <t>(614490691)</t>
+  </si>
+  <si>
+    <t>飛钬鎏天(1394121224)</t>
+  </si>
+  <si>
+    <t>蒲公樱.(348016231)</t>
+  </si>
+  <si>
+    <t>(970139314)</t>
+  </si>
+  <si>
+    <t>少年不白(982045468)</t>
+  </si>
+  <si>
+    <t>Z + +(411453535)</t>
+  </si>
+  <si>
+    <t>哒嘎啦(1740947772)</t>
+  </si>
+  <si>
+    <t>范特莱特(778746618)</t>
   </si>
   <si>
     <t>Dandelions(1142159389)</t>
   </si>
   <si>
-    <t>(614490691)</t>
+    <t>梓沫(1163714799)</t>
   </si>
   <si>
     <t>(2475285079)</t>
   </si>
   <si>
+    <t>245695702(245695702)</t>
+  </si>
+  <si>
+    <t>张慧(1451996420)</t>
+  </si>
+  <si>
+    <t>(1690949570)</t>
+  </si>
+  <si>
+    <t>1083463827(1083463827)</t>
+  </si>
+  <si>
+    <t>(957158256)</t>
+  </si>
+  <si>
+    <t>roach(962746955)</t>
+  </si>
+  <si>
+    <t>(245695702)</t>
+  </si>
+  <si>
+    <t>笳葭简茧(857341987)</t>
+  </si>
+  <si>
+    <t>我想静静(739748139)</t>
+  </si>
+  <si>
+    <t>(892852910)</t>
+  </si>
+  <si>
+    <t>益芝花(1123776491)</t>
+  </si>
+  <si>
+    <t>YJ.C(497596161)</t>
+  </si>
+  <si>
+    <t>つ情如初见╮(571718178)</t>
+  </si>
+  <si>
+    <t>(454096356)</t>
+  </si>
+  <si>
+    <t>1301班张阳莉(772106763)</t>
+  </si>
+  <si>
+    <t>秋轩(362713501)</t>
+  </si>
+  <si>
+    <t>(2223618247)</t>
+  </si>
+  <si>
+    <t>(904871848)</t>
+  </si>
+  <si>
+    <t>等一朵花开(3176309978)</t>
+  </si>
+  <si>
+    <t>≈咕叽咕叽🐳(735179175)</t>
+  </si>
+  <si>
+    <t>(2592115681)</t>
+  </si>
+  <si>
+    <t>(787065816)</t>
+  </si>
+  <si>
+    <t>(291508839)</t>
+  </si>
+  <si>
+    <t>雨天囡囡(270415610)</t>
+  </si>
+  <si>
+    <t>叮叮当(1655484635)</t>
+  </si>
+  <si>
+    <t>(1984604486)</t>
+  </si>
+  <si>
+    <t>韩晶晶(1724226940)</t>
+  </si>
+  <si>
+    <t>依然(1411508114)</t>
+  </si>
+  <si>
+    <t>米虫(1373859151)</t>
+  </si>
+  <si>
+    <t>(664097267)</t>
+  </si>
+  <si>
+    <t>🐬(1442333964)</t>
+  </si>
+  <si>
+    <t>℡在乎不曾在乎的(1506725501)</t>
+  </si>
+  <si>
+    <t>(809054374)</t>
+  </si>
+  <si>
+    <t>山 鸡。、(861306182)</t>
+  </si>
+  <si>
+    <t>(1043445531)</t>
+  </si>
+  <si>
+    <t>但梧(2592115681)</t>
+  </si>
+  <si>
+    <t>(1784054339)</t>
+  </si>
+  <si>
+    <t>(1224506701)</t>
+  </si>
+  <si>
+    <t>cCello(497596161)</t>
+  </si>
+  <si>
+    <t>2633180732(2633180732)</t>
+  </si>
+  <si>
+    <t>☞尚尚 签(2078159179)</t>
+  </si>
+  <si>
+    <t>syd@七哥(545520443)</t>
+  </si>
+  <si>
+    <t>(591432218)</t>
+  </si>
+  <si>
+    <t>2572955597(2572955597)</t>
+  </si>
+  <si>
+    <t>Sun(591983163)</t>
+  </si>
+  <si>
+    <t>17现代教育技术 羊羊羊(504374704)</t>
+  </si>
+  <si>
+    <t>(2110401398)</t>
+  </si>
+  <si>
+    <t>411453535(411453535)</t>
+  </si>
+  <si>
+    <t>离线中•﹏•(1134566393)</t>
+  </si>
+  <si>
+    <t>(1397755301)</t>
+  </si>
+  <si>
+    <t>留胡渣的硬汉(860485645)</t>
+  </si>
+  <si>
+    <t>(2621256871)</t>
+  </si>
+  <si>
+    <t>同一个梦想(1040500460)</t>
+  </si>
+  <si>
+    <t>654705193(654705193)</t>
+  </si>
+  <si>
+    <t>kirito(2350076082)</t>
+  </si>
+  <si>
+    <t>西西舒(809054374)</t>
+  </si>
+  <si>
+    <t>语过添情(1973922416)</t>
+  </si>
+  <si>
+    <t>袁艺双(2661528418)</t>
+  </si>
+  <si>
+    <t>哎呦威(2249621596)</t>
+  </si>
+  <si>
+    <t>Keeping  -forever(1305120310)</t>
+  </si>
+  <si>
+    <t>17届(1184356775)</t>
+  </si>
+  <si>
     <t>(1210545829)</t>
   </si>
   <si>
-    <t>245695702(245695702)</t>
-  </si>
-  <si>
-    <t>袁艺双(2661528418)</t>
-  </si>
-  <si>
-    <t>山 鸡。、(861306182)</t>
-  </si>
-  <si>
-    <t>(957158256)</t>
-  </si>
-  <si>
-    <t>飛钬鎏天(1394121224)</t>
+    <t>(1915238009)</t>
+  </si>
+  <si>
+    <t>如癡如醉的梦(1587113775)</t>
+  </si>
+  <si>
+    <t>筱`然儿(649617133)</t>
+  </si>
+  <si>
+    <t>(1745996805)</t>
   </si>
   <si>
     <t>COMPASSES(1921354189)</t>
   </si>
   <si>
-    <t>(1043445531)</t>
-  </si>
-  <si>
-    <t>17届(1184356775)</t>
-  </si>
-  <si>
-    <t>系统消息(1000000)</t>
-  </si>
-  <si>
-    <t>范特莱特(778746618)</t>
-  </si>
-  <si>
-    <t>1083463827(1083463827)</t>
-  </si>
-  <si>
-    <t>(1915238009)</t>
-  </si>
-  <si>
-    <t>(2110401398)</t>
-  </si>
-  <si>
-    <t>Keeping  -forever(1305120310)</t>
-  </si>
-  <si>
-    <t>654705193(654705193)</t>
-  </si>
-  <si>
-    <t>宁夏(2643159023)</t>
-  </si>
-  <si>
-    <t>(522156844)</t>
-  </si>
-  <si>
-    <t>2572955597(2572955597)</t>
-  </si>
-  <si>
-    <t>(664097267)</t>
-  </si>
-  <si>
-    <t>(1397755301)</t>
-  </si>
-  <si>
-    <t>韩晶晶(1724226940)</t>
-  </si>
-  <si>
-    <t>米虫(1373859151)</t>
-  </si>
-  <si>
-    <t>≈咕叽咕叽🐳(735179175)</t>
-  </si>
-  <si>
-    <t>2633180732(2633180732)</t>
-  </si>
-  <si>
-    <t>(2223618247)</t>
-  </si>
-  <si>
-    <t>(1984604486)</t>
+    <t>灿烂千阳(1499851159)</t>
+  </si>
+  <si>
+    <t>阿莲(2303796493)</t>
+  </si>
+  <si>
+    <t>我爱足球(799392754)</t>
   </si>
   <si>
     <t>小牙套龙猫i(1277808615)</t>
   </si>
   <si>
-    <t>如癡如醉的梦(1587113775)</t>
-  </si>
-  <si>
-    <t>等一朵花开(3176309978)</t>
-  </si>
-  <si>
-    <t>(591432218)</t>
-  </si>
-  <si>
-    <t>西西舒(809054374)</t>
-  </si>
-  <si>
-    <t>灿烂千阳(1499851159)</t>
-  </si>
-  <si>
-    <t>(245695702)</t>
-  </si>
-  <si>
-    <t>Sun(591983163)</t>
-  </si>
-  <si>
-    <t>(892852910)</t>
-  </si>
-  <si>
-    <t>(1129782826)</t>
-  </si>
-  <si>
-    <t>roach(962746955)</t>
-  </si>
-  <si>
-    <t>(787065816)</t>
-  </si>
-  <si>
-    <t>1301班张阳莉(772106763)</t>
-  </si>
-  <si>
-    <t>(904871848)</t>
-  </si>
-  <si>
-    <t>离线中•﹏•(1134566393)</t>
-  </si>
-  <si>
-    <t>秋轩(362713501)</t>
-  </si>
-  <si>
-    <t>雨天囡囡(270415610)</t>
-  </si>
-  <si>
-    <t>(970139314)</t>
-  </si>
-  <si>
-    <t>筱`然儿(649617133)</t>
-  </si>
-  <si>
-    <t>つ情如初见╮(571718178)</t>
-  </si>
-  <si>
-    <t>(1745996805)</t>
-  </si>
-  <si>
-    <t>哎呦威(2249621596)</t>
-  </si>
-  <si>
-    <t>(1690949570)</t>
-  </si>
-  <si>
-    <t>(2621256871)</t>
-  </si>
-  <si>
-    <t>411453535(411453535)</t>
-  </si>
-  <si>
-    <t>蒲公樱.(348016231)</t>
-  </si>
-  <si>
-    <t>安然anr(2756989348)</t>
-  </si>
-  <si>
-    <t>依然(1411508114)</t>
-  </si>
-  <si>
-    <t>😧(297863069)</t>
-  </si>
-  <si>
-    <t>留胡渣的硬汉(860485645)</t>
-  </si>
-  <si>
-    <t>☞尚尚 签(2078159179)</t>
-  </si>
-  <si>
-    <t>17现代教育技术 羊羊羊(504374704)</t>
-  </si>
-  <si>
-    <t>kirito(2350076082)</t>
-  </si>
-  <si>
-    <t>叮叮当(1655484635)</t>
-  </si>
-  <si>
-    <t>syd@七哥(545520443)</t>
-  </si>
-  <si>
-    <t>同一个梦想(1040500460)</t>
-  </si>
-  <si>
-    <t>(1784054339)</t>
-  </si>
-  <si>
-    <t>lily _an(694893590)</t>
-  </si>
-  <si>
-    <t>(291508839)</t>
-  </si>
-  <si>
-    <t>주류(741903190)</t>
-  </si>
-  <si>
-    <t>(809054374)</t>
-  </si>
-  <si>
-    <t>张慧(1451996420)</t>
-  </si>
-  <si>
-    <t>风华正茂(2542208637)</t>
-  </si>
-  <si>
-    <t>(1224506701)</t>
-  </si>
-  <si>
-    <t>(454096356)</t>
-  </si>
-  <si>
-    <t>想子(1614184081)</t>
-  </si>
-  <si>
-    <t>℡在乎不曾在乎的(1506725501)</t>
-  </si>
-  <si>
-    <t>Z + +(411453535)</t>
-  </si>
-  <si>
-    <t>YJ.C(497596161)</t>
-  </si>
-  <si>
     <t>词汇</t>
   </si>
   <si>
@@ -819,10 +921,16 @@
     <t>中国</t>
   </si>
   <si>
+    <t>武昌</t>
+  </si>
+  <si>
+    <t>华东</t>
+  </si>
+  <si>
     <t>湖北省</t>
   </si>
   <si>
-    <t>华东</t>
+    <t>东南</t>
   </si>
   <si>
     <t>济州岛</t>
@@ -834,12 +942,27 @@
     <t>重庆</t>
   </si>
   <si>
+    <t>东西</t>
+  </si>
+  <si>
     <t>北京</t>
   </si>
   <si>
+    <t>广埠屯</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
     <t>陕</t>
   </si>
   <si>
+    <t>广埠</t>
+  </si>
+  <si>
     <t>浙大</t>
   </si>
   <si>
@@ -849,79 +972,106 @@
     <t>四本</t>
   </si>
   <si>
-    <t>东西</t>
-  </si>
-  <si>
-    <t>河北</t>
+    <t>琉</t>
+  </si>
+  <si>
+    <t>开朗</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>南湖</t>
+  </si>
+  <si>
+    <t>桂苑</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>伊河</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>四海</t>
+  </si>
+  <si>
+    <t>南门</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>上门</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>华南</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>南极</t>
   </si>
   <si>
     <t>哈</t>
   </si>
   <si>
-    <t>北</t>
+    <t>远超过</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>吐口</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>波</t>
   </si>
   <si>
     <t>华山</t>
   </si>
   <si>
-    <t>太阳</t>
-  </si>
-  <si>
-    <t>四川</t>
-  </si>
-  <si>
-    <t>琉</t>
-  </si>
-  <si>
-    <t>青</t>
+    <t>西南</t>
   </si>
   <si>
     <t>城市</t>
   </si>
   <si>
-    <t>陕西</t>
-  </si>
-  <si>
-    <t>上门</t>
+    <t>北门</t>
   </si>
   <si>
     <t>米苏</t>
   </si>
   <si>
-    <t>远超过</t>
-  </si>
-  <si>
-    <t>外国</t>
-  </si>
-  <si>
-    <t>华南</t>
-  </si>
-  <si>
-    <t>开朗</t>
-  </si>
-  <si>
-    <t>深度</t>
-  </si>
-  <si>
-    <t>南湖</t>
-  </si>
-  <si>
-    <t>伊河</t>
-  </si>
-  <si>
-    <t>河南</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>西南</t>
-  </si>
-  <si>
-    <t>山西</t>
+    <t>汉口</t>
+  </si>
+  <si>
+    <t>花钱买</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>155</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1364,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1372,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>185</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1380,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>124</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1388,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>196</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1396,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>319</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1404,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1412,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1420,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1428,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1436,7 +1586,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1444,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1452,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1470,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1493,7 +1643,7 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>240</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1501,7 +1651,7 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1509,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1517,7 +1667,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1525,7 +1675,7 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1533,7 +1683,7 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1541,7 +1691,7 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1549,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1557,7 +1707,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1565,7 +1715,7 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1573,7 +1723,7 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1581,7 +1731,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1589,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1597,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1605,7 +1755,7 @@
         <v>41</v>
       </c>
       <c r="B16">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1613,7 +1763,7 @@
         <v>42</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1621,7 +1771,7 @@
         <v>43</v>
       </c>
       <c r="B18">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1629,7 +1779,7 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1637,7 +1787,7 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1645,7 +1795,7 @@
         <v>46</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1653,7 +1803,7 @@
         <v>47</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1661,7 +1811,7 @@
         <v>48</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1669,7 +1819,7 @@
         <v>49</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1677,7 +1827,7 @@
         <v>50</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1685,7 +1835,7 @@
         <v>51</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1693,7 +1843,7 @@
         <v>52</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1701,7 +1851,7 @@
         <v>53</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1709,7 +1859,7 @@
         <v>54</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1717,7 +1867,7 @@
         <v>55</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1725,7 +1875,7 @@
         <v>56</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1733,7 +1883,7 @@
         <v>57</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1741,7 +1891,7 @@
         <v>58</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1749,7 +1899,7 @@
         <v>59</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1757,7 +1907,7 @@
         <v>60</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1765,7 +1915,7 @@
         <v>61</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1773,7 +1923,7 @@
         <v>62</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1781,7 +1931,7 @@
         <v>63</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1789,7 +1939,7 @@
         <v>64</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1797,7 +1947,7 @@
         <v>65</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1805,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1813,7 +1963,7 @@
         <v>67</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1821,7 +1971,7 @@
         <v>68</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1829,7 +1979,7 @@
         <v>69</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1837,7 +1987,7 @@
         <v>70</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1845,7 +1995,7 @@
         <v>71</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1853,7 +2003,7 @@
         <v>72</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1861,7 +2011,7 @@
         <v>73</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1869,7 +2019,7 @@
         <v>74</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1877,7 +2027,7 @@
         <v>75</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1885,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1893,7 +2043,7 @@
         <v>77</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1901,7 +2051,7 @@
         <v>78</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1909,7 +2059,7 @@
         <v>79</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1917,7 +2067,7 @@
         <v>80</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1925,7 +2075,7 @@
         <v>81</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1933,7 +2083,7 @@
         <v>82</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1941,7 +2091,7 @@
         <v>83</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1949,7 +2099,7 @@
         <v>84</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1957,7 +2107,7 @@
         <v>85</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1965,7 +2115,7 @@
         <v>86</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1973,7 +2123,7 @@
         <v>87</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1981,7 +2131,7 @@
         <v>88</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1989,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1997,7 +2147,7 @@
         <v>90</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2005,7 +2155,7 @@
         <v>91</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2013,7 +2163,7 @@
         <v>92</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2021,7 +2171,7 @@
         <v>93</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2029,7 +2179,7 @@
         <v>94</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2037,7 +2187,7 @@
         <v>95</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2045,7 +2195,7 @@
         <v>96</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2053,7 +2203,7 @@
         <v>97</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2061,7 +2211,7 @@
         <v>98</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2069,7 +2219,7 @@
         <v>99</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2077,7 +2227,7 @@
         <v>100</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2085,7 +2235,7 @@
         <v>101</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2093,7 +2243,7 @@
         <v>102</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2101,7 +2251,7 @@
         <v>103</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2109,7 +2259,7 @@
         <v>104</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2117,7 +2267,7 @@
         <v>105</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2125,7 +2275,7 @@
         <v>106</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2133,7 +2283,7 @@
         <v>107</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2141,7 +2291,7 @@
         <v>108</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2149,7 +2299,7 @@
         <v>109</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2157,7 +2307,7 @@
         <v>110</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2165,7 +2315,7 @@
         <v>111</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2173,7 +2323,7 @@
         <v>112</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2181,7 +2331,7 @@
         <v>113</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2189,7 +2339,7 @@
         <v>114</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2197,7 +2347,7 @@
         <v>115</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2205,7 +2355,7 @@
         <v>116</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2213,7 +2363,7 @@
         <v>117</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2221,7 +2371,7 @@
         <v>118</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2229,7 +2379,7 @@
         <v>119</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2237,7 +2387,7 @@
         <v>120</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2245,7 +2395,7 @@
         <v>121</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2253,7 +2403,7 @@
         <v>122</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2261,7 +2411,7 @@
         <v>123</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2269,7 +2419,7 @@
         <v>124</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2277,7 +2427,7 @@
         <v>125</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2285,7 +2435,7 @@
         <v>126</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2293,7 +2443,7 @@
         <v>127</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2301,7 +2451,7 @@
         <v>128</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2309,7 +2459,7 @@
         <v>129</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2317,7 +2467,7 @@
         <v>130</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2325,7 +2475,7 @@
         <v>131</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2333,7 +2483,7 @@
         <v>132</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2341,7 +2491,7 @@
         <v>133</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2349,7 +2499,7 @@
         <v>134</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2357,7 +2507,7 @@
         <v>135</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2365,7 +2515,7 @@
         <v>136</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2373,7 +2523,7 @@
         <v>137</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2381,7 +2531,7 @@
         <v>138</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2389,7 +2539,7 @@
         <v>139</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2397,7 +2547,7 @@
         <v>140</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2405,7 +2555,7 @@
         <v>141</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2413,7 +2563,7 @@
         <v>142</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2421,7 +2571,7 @@
         <v>143</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2429,7 +2579,7 @@
         <v>144</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2437,7 +2587,7 @@
         <v>145</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2445,7 +2595,7 @@
         <v>146</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2453,7 +2603,7 @@
         <v>147</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2461,7 +2611,7 @@
         <v>148</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2469,7 +2619,7 @@
         <v>149</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2477,7 +2627,7 @@
         <v>150</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2485,7 +2635,7 @@
         <v>151</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2493,7 +2643,7 @@
         <v>152</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2501,7 +2651,7 @@
         <v>153</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2509,7 +2659,7 @@
         <v>154</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2517,7 +2667,7 @@
         <v>155</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2525,7 +2675,7 @@
         <v>156</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2533,7 +2683,7 @@
         <v>157</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2541,7 +2691,7 @@
         <v>158</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2549,7 +2699,7 @@
         <v>159</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2557,7 +2707,7 @@
         <v>160</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2565,7 +2715,7 @@
         <v>161</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2573,7 +2723,7 @@
         <v>162</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2581,7 +2731,7 @@
         <v>163</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2589,7 +2739,7 @@
         <v>164</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2597,7 +2747,7 @@
         <v>165</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2605,7 +2755,7 @@
         <v>166</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2613,7 +2763,7 @@
         <v>167</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2621,7 +2771,7 @@
         <v>168</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2629,7 +2779,7 @@
         <v>169</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2637,7 +2787,7 @@
         <v>170</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2733,7 +2883,7 @@
         <v>182</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2741,7 +2891,7 @@
         <v>183</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2749,7 +2899,7 @@
         <v>184</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2757,7 +2907,7 @@
         <v>185</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2765,7 +2915,7 @@
         <v>186</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2773,7 +2923,7 @@
         <v>187</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2781,7 +2931,7 @@
         <v>188</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2789,7 +2939,7 @@
         <v>189</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2797,7 +2947,7 @@
         <v>190</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2805,7 +2955,7 @@
         <v>191</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2813,7 +2963,7 @@
         <v>192</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2821,7 +2971,7 @@
         <v>193</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2829,7 +2979,7 @@
         <v>194</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2837,7 +2987,7 @@
         <v>195</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2845,7 +2995,7 @@
         <v>196</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2853,7 +3003,7 @@
         <v>197</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2861,7 +3011,7 @@
         <v>198</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2869,7 +3019,7 @@
         <v>199</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2877,7 +3027,7 @@
         <v>200</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2885,7 +3035,7 @@
         <v>201</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2893,7 +3043,7 @@
         <v>202</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2901,7 +3051,7 @@
         <v>203</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2909,7 +3059,7 @@
         <v>204</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2917,7 +3067,7 @@
         <v>205</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2925,7 +3075,7 @@
         <v>206</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2933,7 +3083,7 @@
         <v>207</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2941,7 +3091,7 @@
         <v>208</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3357,6 +3507,278 @@
         <v>260</v>
       </c>
       <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>261</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>262</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>263</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>264</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>265</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>266</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>267</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>269</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>271</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>272</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>273</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>274</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>275</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>276</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>277</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>278</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>279</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>280</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>281</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>282</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>283</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>284</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>285</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>286</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>287</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>288</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>289</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>290</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>291</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>292</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>293</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>294</v>
+      </c>
+      <c r="B269">
         <v>1</v>
       </c>
     </row>
@@ -3367,7 +3789,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3379,23 +3801,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -3403,7 +3825,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3411,7 +3833,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3419,7 +3841,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3427,7 +3849,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -3435,15 +3857,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3451,7 +3873,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3459,7 +3881,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3467,7 +3889,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3475,7 +3897,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3483,7 +3905,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -3491,7 +3913,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3499,7 +3921,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3507,7 +3929,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -3515,47 +3937,47 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3563,7 +3985,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3571,7 +3993,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3579,7 +4001,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3587,7 +4009,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3595,7 +4017,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3603,7 +4025,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3611,7 +4033,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3619,7 +4041,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3627,7 +4049,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3635,7 +4057,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3643,7 +4065,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3651,7 +4073,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3659,7 +4081,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3667,7 +4089,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3675,7 +4097,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3683,7 +4105,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3691,9 +4113,137 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56">
         <v>1</v>
       </c>
     </row>

--- a/src/out/20172018华中师大教技群.xlsx
+++ b/src/out/20172018华中师大教技群.xlsx
@@ -24,883 +24,883 @@
     <t>活跃量</t>
   </si>
   <si>
-    <t>00点</t>
-  </si>
-  <si>
-    <t>01点</t>
-  </si>
-  <si>
-    <t>02点</t>
-  </si>
-  <si>
-    <t>03点</t>
-  </si>
-  <si>
-    <t>04点</t>
-  </si>
-  <si>
-    <t>05点</t>
-  </si>
-  <si>
-    <t>06点</t>
-  </si>
-  <si>
-    <t>07点</t>
-  </si>
-  <si>
-    <t>08点</t>
-  </si>
-  <si>
-    <t>09点</t>
-  </si>
-  <si>
-    <t>10点</t>
-  </si>
-  <si>
-    <t>11点</t>
-  </si>
-  <si>
-    <t>12点</t>
-  </si>
-  <si>
-    <t>13点</t>
-  </si>
-  <si>
-    <t>14点</t>
-  </si>
-  <si>
-    <t>15点</t>
-  </si>
-  <si>
-    <t>16点</t>
-  </si>
-  <si>
-    <t>17点</t>
-  </si>
-  <si>
-    <t>18点</t>
-  </si>
-  <si>
-    <t>19点</t>
-  </si>
-  <si>
-    <t>20点</t>
-  </si>
-  <si>
-    <t>21点</t>
-  </si>
-  <si>
-    <t>22点</t>
-  </si>
-  <si>
-    <t>23点</t>
+    <t>00h</t>
+  </si>
+  <si>
+    <t>01h</t>
+  </si>
+  <si>
+    <t>02h</t>
+  </si>
+  <si>
+    <t>03h</t>
+  </si>
+  <si>
+    <t>04h</t>
+  </si>
+  <si>
+    <t>05h</t>
+  </si>
+  <si>
+    <t>06h</t>
+  </si>
+  <si>
+    <t>07h</t>
+  </si>
+  <si>
+    <t>08h</t>
+  </si>
+  <si>
+    <t>09h</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>21h</t>
+  </si>
+  <si>
+    <t>22h</t>
+  </si>
+  <si>
+    <t>23h</t>
   </si>
   <si>
     <t>成员</t>
   </si>
   <si>
-    <t>邬思娜(844764041)</t>
-  </si>
-  <si>
-    <t>美酒爱尔兰(1083463827)</t>
-  </si>
-  <si>
-    <t>ヅ緈运的泪(451367682)</t>
-  </si>
-  <si>
-    <t>锤锤(512532075)</t>
-  </si>
-  <si>
-    <t>Fireflies(1745996805)</t>
-  </si>
-  <si>
-    <t>⊙▽⊙ 懵～～(2722386083)</t>
-  </si>
-  <si>
-    <t>漂萍(1697736800)</t>
-  </si>
-  <si>
-    <t>♛｀继续丶现在♚(109000303)</t>
-  </si>
-  <si>
-    <t>(80000000)</t>
-  </si>
-  <si>
-    <t>画地为牢(543667665)</t>
-  </si>
-  <si>
-    <t>大米饭(614490691)</t>
-  </si>
-  <si>
-    <t>sunshine(937575432)</t>
-  </si>
-  <si>
-    <t>づ思念、漫过我的城(1129782826)</t>
-  </si>
-  <si>
-    <t>13教技张月(1032340257)</t>
-  </si>
-  <si>
-    <t>系统消息(10000)</t>
-  </si>
-  <si>
-    <t>她说(1103870652)</t>
-  </si>
-  <si>
-    <t>怦然心动(793484958)</t>
-  </si>
-  <si>
-    <t>Emotion°(1609961923)</t>
-  </si>
-  <si>
-    <t>^-^橘子(2842354753)</t>
-  </si>
-  <si>
-    <t>Na Na Na(970139314)</t>
-  </si>
-  <si>
-    <t>Unique(386358455)</t>
-  </si>
-  <si>
-    <t>墨墨(554068550)</t>
-  </si>
-  <si>
-    <t>猫猫如意(1054129339)</t>
-  </si>
-  <si>
-    <t>黄健&lt;huangjian5931@qq.com&gt;</t>
-  </si>
-  <si>
-    <t>灯半昏时(1032340257)</t>
-  </si>
-  <si>
-    <t>我和小麦本家(1174965189)</t>
-  </si>
-  <si>
-    <t>紀小純(786375754)</t>
-  </si>
-  <si>
-    <t>Z(523209129)</t>
-  </si>
-  <si>
-    <t>仙人掌(2023234587)</t>
-  </si>
-  <si>
-    <t>han(1184762792)</t>
-  </si>
-  <si>
-    <t>南山南(1783586417)</t>
-  </si>
-  <si>
-    <t>麒(172404460)</t>
-  </si>
-  <si>
-    <t>1301陈紫欣(2010719010)</t>
-  </si>
-  <si>
-    <t>漫同学(2685949972)</t>
-  </si>
-  <si>
-    <t>寂静欢喜(1047793182)</t>
-  </si>
-  <si>
-    <t>右手年华(1169389895)</t>
-  </si>
-  <si>
-    <t>馨_梦_缘(2380632272)</t>
-  </si>
-  <si>
-    <t>づ Alice  、(291508839)</t>
-  </si>
-  <si>
-    <t>주류(741903190)</t>
-  </si>
-  <si>
-    <t>指尖划过(1506645431)</t>
-  </si>
-  <si>
-    <t>左然莫奈(1690949570)</t>
-  </si>
-  <si>
-    <t>环大帝(1776802386)</t>
-  </si>
-  <si>
-    <t>kaoklai(2110401398)</t>
-  </si>
-  <si>
-    <t>苗苗(599153085)</t>
-  </si>
-  <si>
-    <t>Flavor﹌○﹌(937265124)</t>
-  </si>
-  <si>
-    <t>844764041(844764041)</t>
-  </si>
-  <si>
-    <t>(1609961923)</t>
-  </si>
-  <si>
-    <t>Daisy**(1351462450)</t>
-  </si>
-  <si>
-    <t>柚子(78006689)</t>
-  </si>
-  <si>
-    <t>Seal＆Post(1984604486)</t>
-  </si>
-  <si>
-    <t>辛鑫鑫#且听风吟(1402571788)</t>
-  </si>
-  <si>
-    <t>我当仙女很久了&lt;niuniu784364039@qq.com&gt;</t>
-  </si>
-  <si>
-    <t>(545520443)</t>
-  </si>
-  <si>
-    <t>大街小巷''(565759084)</t>
-  </si>
-  <si>
-    <t>芳土中的金色記憶(1272240185)</t>
-  </si>
-  <si>
-    <t>18教育技术(1620957933)</t>
-  </si>
-  <si>
-    <t>￣聽、雨茬丅(1229727136)</t>
-  </si>
-  <si>
-    <t>(654705193)</t>
-  </si>
-  <si>
-    <t>(778746618)</t>
-  </si>
-  <si>
-    <t>橘子黄时(1622394719)</t>
-  </si>
-  <si>
-    <t>水瑈(1210545829)</t>
-  </si>
-  <si>
-    <t>(2316605517)</t>
-  </si>
-  <si>
-    <t>93号(1733004832)</t>
-  </si>
-  <si>
-    <t>青稞(1837693345)</t>
-  </si>
-  <si>
-    <t>Serena-fragrans 🌻(295709662)</t>
-  </si>
-  <si>
-    <t>意乐(2928161289)</t>
-  </si>
-  <si>
-    <t>(844764041)</t>
-  </si>
-  <si>
-    <t>囡囡小米(1187516892)</t>
-  </si>
-  <si>
-    <t>lemon酸(1187264181)</t>
-  </si>
-  <si>
-    <t>清风★竹韵(2232770495)</t>
-  </si>
-  <si>
-    <t>💤(297863069)</t>
-  </si>
-  <si>
-    <t>一只能唱会跳的DC🐮(892852910)</t>
-  </si>
-  <si>
-    <t>风华正茂(2542208637)</t>
-  </si>
-  <si>
-    <t>漂洋过海来看你(844764041)</t>
-  </si>
-  <si>
-    <t>––––(1041621651)</t>
-  </si>
-  <si>
-    <t>Hehhjk(1827843091)</t>
-  </si>
-  <si>
-    <t>小小小志(419825855)</t>
-  </si>
-  <si>
-    <t>不要说话(1914826709)</t>
-  </si>
-  <si>
-    <t>restart(1311449671)</t>
-  </si>
-  <si>
-    <t>3432725894(3432725894)</t>
-  </si>
-  <si>
-    <t>1174965189(1174965189)</t>
-  </si>
-  <si>
-    <t>(1083463827)</t>
-  </si>
-  <si>
-    <t>现代教育技术(1294520877)</t>
-  </si>
-  <si>
-    <t>梨✌予君旁(1054474730)</t>
-  </si>
-  <si>
-    <t>千寻瀑(957936238)</t>
-  </si>
-  <si>
-    <t>清玲之恋(1101314653)</t>
-  </si>
-  <si>
-    <t>王家七大少(2092253097)</t>
-  </si>
-  <si>
-    <t>吾心永恒👲(2685718613)</t>
-  </si>
-  <si>
-    <t>🍭(442511735)</t>
-  </si>
-  <si>
-    <t>(78006689)</t>
-  </si>
-  <si>
-    <t>安安(1784054339)</t>
-  </si>
-  <si>
-    <t>WSS (^V^)(1594288422)</t>
-  </si>
-  <si>
-    <t>^Secretofmyboy(1831844901)</t>
-  </si>
-  <si>
-    <t>一匹马赛克♚(454096356)</t>
-  </si>
-  <si>
-    <t>做个简单的薯片😝(1743147231)</t>
-  </si>
-  <si>
-    <t>鑫鑫蔷薇墙(1272240185)</t>
-  </si>
-  <si>
-    <t>越努力 越幸运(1162902922)</t>
-  </si>
-  <si>
-    <t>(3432725894)</t>
-  </si>
-  <si>
-    <t>可乐粉里的青花瓷(2714103049)</t>
-  </si>
-  <si>
-    <t>づ思念、漫过我的城&lt;spygzeq@foxmail.com&gt;</t>
-  </si>
-  <si>
-    <t>蕶(957158256)</t>
-  </si>
-  <si>
-    <t>1129782826(1129782826)</t>
-  </si>
-  <si>
-    <t>(2232770495)</t>
-  </si>
-  <si>
-    <t>诚信(1239949433)</t>
-  </si>
-  <si>
-    <t>时光凉人心(2396341551)</t>
-  </si>
-  <si>
-    <t>(951060679)</t>
-  </si>
-  <si>
-    <t>Daisy(1298147864)</t>
-  </si>
-  <si>
-    <t>just a loser(3432725894)</t>
-  </si>
-  <si>
-    <t>(1776802386)</t>
-  </si>
-  <si>
-    <t>地瓜你个烤番薯 🍉(860485645)</t>
-  </si>
-  <si>
-    <t>瘦子不瘦(1063358788)</t>
-  </si>
-  <si>
-    <t>如果你愿意去给河马刷牙。(840590962)</t>
-  </si>
-  <si>
-    <t>1301-吴海英。(932772445)</t>
-  </si>
-  <si>
-    <t>花落.自相惜(1037898131)</t>
-  </si>
-  <si>
-    <t>Yesterday(847143652)</t>
-  </si>
-  <si>
-    <t>流萤(1745996805)</t>
-  </si>
-  <si>
-    <t>少说话多看书！(951060679)</t>
-  </si>
-  <si>
-    <t>(2010719010)</t>
-  </si>
-  <si>
-    <t>๑˙ー˙๑懵石子(1241539404)</t>
-  </si>
-  <si>
-    <t>针(1745996805)</t>
-  </si>
-  <si>
-    <t>`M'aster(522156844)</t>
-  </si>
-  <si>
-    <t>(2928161289)</t>
-  </si>
-  <si>
-    <t>此时此刻的云 二十来岁的(1032725610)</t>
-  </si>
-  <si>
-    <t>我当仙女很久了(784364039)</t>
-  </si>
-  <si>
-    <t>Jack L(1986106726)</t>
-  </si>
-  <si>
-    <t>旭(819069359)</t>
-  </si>
-  <si>
-    <t>系统消息(1000000)</t>
-  </si>
-  <si>
-    <t>1984604486(1984604486)</t>
-  </si>
-  <si>
-    <t>1210545829(1210545829)</t>
-  </si>
-  <si>
-    <t>小时候*^_^*(807490863)</t>
-  </si>
-  <si>
-    <t>970139314(970139314)</t>
-  </si>
-  <si>
-    <t>小熹(809054374)</t>
-  </si>
-  <si>
-    <t>湖南一师 丁青(1344263164)</t>
-  </si>
-  <si>
-    <t>957158256(957158256)</t>
-  </si>
-  <si>
-    <t>凌云志(1741607086)</t>
-  </si>
-  <si>
-    <t>lily _an(694893590)</t>
-  </si>
-  <si>
-    <t>Sunday(2661528418)</t>
-  </si>
-  <si>
-    <t>小角儿(2845312245)</t>
-  </si>
-  <si>
-    <t>brilliant(852415491)</t>
-  </si>
-  <si>
-    <t>(476140671)</t>
-  </si>
-  <si>
-    <t>ctrl+s(654705193)</t>
-  </si>
-  <si>
-    <t>L_兔小灰(1772667705)</t>
-  </si>
-  <si>
-    <t>给咖啡加点盐(1776802386)</t>
-  </si>
-  <si>
-    <t>。。(1006899020)</t>
-  </si>
-  <si>
-    <t>幸福很简单😄(1277940729)</t>
-  </si>
-  <si>
-    <t>水   墨   青   花(1784886866)</t>
-  </si>
-  <si>
-    <t>爱の味（思念）(961335326)</t>
-  </si>
-  <si>
-    <t>ゆ "淡然、回眸ゝ(1242975495)</t>
-  </si>
-  <si>
-    <t>张弓搭箭(284688288)</t>
-  </si>
-  <si>
-    <t>想子(1614184081)</t>
-  </si>
-  <si>
-    <t>只是#为了你(1416798557)</t>
-  </si>
-  <si>
-    <t>空空狐(1241663874)</t>
-  </si>
-  <si>
-    <t>silence(1224506701)</t>
-  </si>
-  <si>
-    <t>1915238009(1915238009)</t>
-  </si>
-  <si>
-    <t>(2396341551)</t>
-  </si>
-  <si>
-    <t>1784054339(1784054339)</t>
-  </si>
-  <si>
-    <t>Prestigious Firefly(1115236369)</t>
-  </si>
-  <si>
-    <t>Stonegarlic(1650992907)</t>
-  </si>
-  <si>
-    <t>1511494747(1511494747)</t>
-  </si>
-  <si>
-    <t>DD(810712967)</t>
-  </si>
-  <si>
-    <t>(1174965189)</t>
-  </si>
-  <si>
-    <t>🌺PYQYTT🌺(1838580985)</t>
-  </si>
-  <si>
-    <t>晴晨朗暮(1422665168)</t>
-  </si>
-  <si>
-    <t>(1743147231)</t>
-  </si>
-  <si>
-    <t>1224506701(1224506701)</t>
-  </si>
-  <si>
-    <t>紫云雪凝(2296304042)</t>
-  </si>
-  <si>
-    <t>(2685949972)</t>
-  </si>
-  <si>
-    <t>DISTANCE(2839895870)</t>
-  </si>
-  <si>
-    <t>Seven(1299737803)</t>
-  </si>
-  <si>
-    <t>期待，明天(1208821126)</t>
-  </si>
-  <si>
-    <t>(565759084)</t>
-  </si>
-  <si>
-    <t>🐙📄🍎(1542537253)</t>
-  </si>
-  <si>
-    <t>(1242975495)</t>
-  </si>
-  <si>
-    <t>MY  *LoVe*(1094534358)</t>
-  </si>
-  <si>
-    <t>青色花(1034336554)</t>
-  </si>
-  <si>
-    <t>安然anr(2756989348)</t>
-  </si>
-  <si>
-    <t>Toaster(810849768)</t>
-  </si>
-  <si>
-    <t>。(1344263164)</t>
-  </si>
-  <si>
-    <t>2896078156(2896078156)</t>
-  </si>
-  <si>
-    <t>2928161289(2928161289)</t>
-  </si>
-  <si>
-    <t>幽人琼月饮恨(1430499401)</t>
-  </si>
-  <si>
-    <t>小小(1418168422)</t>
-  </si>
-  <si>
-    <t>😧(297863069)</t>
-  </si>
-  <si>
-    <t>宁夏(2643159023)</t>
-  </si>
-  <si>
-    <t>(1129782826)</t>
-  </si>
-  <si>
-    <t>(522156844)</t>
-  </si>
-  <si>
-    <t>(614490691)</t>
-  </si>
-  <si>
-    <t>飛钬鎏天(1394121224)</t>
-  </si>
-  <si>
-    <t>蒲公樱.(348016231)</t>
-  </si>
-  <si>
-    <t>(970139314)</t>
-  </si>
-  <si>
-    <t>少年不白(982045468)</t>
-  </si>
-  <si>
-    <t>Z + +(411453535)</t>
-  </si>
-  <si>
-    <t>哒嘎啦(1740947772)</t>
-  </si>
-  <si>
-    <t>范特莱特(778746618)</t>
-  </si>
-  <si>
-    <t>Dandelions(1142159389)</t>
-  </si>
-  <si>
-    <t>梓沫(1163714799)</t>
-  </si>
-  <si>
-    <t>(2475285079)</t>
-  </si>
-  <si>
-    <t>245695702(245695702)</t>
-  </si>
-  <si>
-    <t>张慧(1451996420)</t>
-  </si>
-  <si>
-    <t>(1690949570)</t>
-  </si>
-  <si>
-    <t>1083463827(1083463827)</t>
-  </si>
-  <si>
-    <t>(957158256)</t>
-  </si>
-  <si>
-    <t>roach(962746955)</t>
-  </si>
-  <si>
-    <t>(245695702)</t>
-  </si>
-  <si>
-    <t>笳葭简茧(857341987)</t>
-  </si>
-  <si>
-    <t>我想静静(739748139)</t>
-  </si>
-  <si>
-    <t>(892852910)</t>
-  </si>
-  <si>
-    <t>益芝花(1123776491)</t>
-  </si>
-  <si>
-    <t>YJ.C(497596161)</t>
-  </si>
-  <si>
-    <t>つ情如初见╮(571718178)</t>
-  </si>
-  <si>
-    <t>(454096356)</t>
-  </si>
-  <si>
-    <t>1301班张阳莉(772106763)</t>
-  </si>
-  <si>
-    <t>秋轩(362713501)</t>
-  </si>
-  <si>
-    <t>(2223618247)</t>
-  </si>
-  <si>
-    <t>(904871848)</t>
-  </si>
-  <si>
-    <t>等一朵花开(3176309978)</t>
-  </si>
-  <si>
-    <t>≈咕叽咕叽🐳(735179175)</t>
-  </si>
-  <si>
-    <t>(2592115681)</t>
-  </si>
-  <si>
-    <t>(787065816)</t>
-  </si>
-  <si>
-    <t>(291508839)</t>
-  </si>
-  <si>
-    <t>雨天囡囡(270415610)</t>
-  </si>
-  <si>
-    <t>叮叮当(1655484635)</t>
-  </si>
-  <si>
-    <t>(1984604486)</t>
-  </si>
-  <si>
-    <t>韩晶晶(1724226940)</t>
-  </si>
-  <si>
-    <t>依然(1411508114)</t>
-  </si>
-  <si>
-    <t>米虫(1373859151)</t>
-  </si>
-  <si>
-    <t>(664097267)</t>
-  </si>
-  <si>
-    <t>🐬(1442333964)</t>
-  </si>
-  <si>
-    <t>℡在乎不曾在乎的(1506725501)</t>
-  </si>
-  <si>
-    <t>(809054374)</t>
-  </si>
-  <si>
-    <t>山 鸡。、(861306182)</t>
-  </si>
-  <si>
-    <t>(1043445531)</t>
-  </si>
-  <si>
-    <t>但梧(2592115681)</t>
-  </si>
-  <si>
-    <t>(1784054339)</t>
-  </si>
-  <si>
-    <t>(1224506701)</t>
-  </si>
-  <si>
-    <t>cCello(497596161)</t>
-  </si>
-  <si>
-    <t>2633180732(2633180732)</t>
-  </si>
-  <si>
-    <t>☞尚尚 签(2078159179)</t>
-  </si>
-  <si>
-    <t>syd@七哥(545520443)</t>
-  </si>
-  <si>
-    <t>(591432218)</t>
-  </si>
-  <si>
-    <t>2572955597(2572955597)</t>
-  </si>
-  <si>
-    <t>Sun(591983163)</t>
-  </si>
-  <si>
-    <t>17现代教育技术 羊羊羊(504374704)</t>
-  </si>
-  <si>
-    <t>(2110401398)</t>
-  </si>
-  <si>
-    <t>411453535(411453535)</t>
-  </si>
-  <si>
-    <t>离线中•﹏•(1134566393)</t>
-  </si>
-  <si>
-    <t>(1397755301)</t>
-  </si>
-  <si>
-    <t>留胡渣的硬汉(860485645)</t>
-  </si>
-  <si>
-    <t>(2621256871)</t>
-  </si>
-  <si>
-    <t>同一个梦想(1040500460)</t>
-  </si>
-  <si>
-    <t>654705193(654705193)</t>
-  </si>
-  <si>
-    <t>kirito(2350076082)</t>
-  </si>
-  <si>
-    <t>西西舒(809054374)</t>
-  </si>
-  <si>
-    <t>语过添情(1973922416)</t>
-  </si>
-  <si>
-    <t>袁艺双(2661528418)</t>
-  </si>
-  <si>
-    <t>哎呦威(2249621596)</t>
-  </si>
-  <si>
-    <t>Keeping  -forever(1305120310)</t>
-  </si>
-  <si>
-    <t>17届(1184356775)</t>
-  </si>
-  <si>
-    <t>(1210545829)</t>
-  </si>
-  <si>
-    <t>(1915238009)</t>
-  </si>
-  <si>
-    <t>如癡如醉的梦(1587113775)</t>
-  </si>
-  <si>
-    <t>筱`然儿(649617133)</t>
-  </si>
-  <si>
-    <t>(1745996805)</t>
-  </si>
-  <si>
-    <t>COMPASSES(1921354189)</t>
-  </si>
-  <si>
-    <t>灿烂千阳(1499851159)</t>
-  </si>
-  <si>
-    <t>阿莲(2303796493)</t>
-  </si>
-  <si>
-    <t>我爱足球(799392754)</t>
-  </si>
-  <si>
-    <t>小牙套龙猫i(1277808615)</t>
+    <t>邬思娜(844764041)_x000D_</t>
+  </si>
+  <si>
+    <t>美酒爱尔兰(1083463827)_x000D_</t>
+  </si>
+  <si>
+    <t>ヅ緈运的泪(451367682)_x000D_</t>
+  </si>
+  <si>
+    <t>锤锤(512532075)_x000D_</t>
+  </si>
+  <si>
+    <t>Fireflies(1745996805)_x000D_</t>
+  </si>
+  <si>
+    <t>⊙▽⊙ 懵～～(2722386083)_x000D_</t>
+  </si>
+  <si>
+    <t>漂萍(1697736800)_x000D_</t>
+  </si>
+  <si>
+    <t>♛｀继续丶现在♚(109000303)_x000D_</t>
+  </si>
+  <si>
+    <t>(80000000)_x000D_</t>
+  </si>
+  <si>
+    <t>画地为牢(543667665)_x000D_</t>
+  </si>
+  <si>
+    <t>大米饭(614490691)_x000D_</t>
+  </si>
+  <si>
+    <t>sunshine(937575432)_x000D_</t>
+  </si>
+  <si>
+    <t>づ思念、漫过我的城(1129782826)_x000D_</t>
+  </si>
+  <si>
+    <t>13教技张月(1032340257)_x000D_</t>
+  </si>
+  <si>
+    <t>系统消息(10000)_x000D_</t>
+  </si>
+  <si>
+    <t>她说(1103870652)_x000D_</t>
+  </si>
+  <si>
+    <t>怦然心动(793484958)_x000D_</t>
+  </si>
+  <si>
+    <t>Emotion°(1609961923)_x000D_</t>
+  </si>
+  <si>
+    <t>^-^橘子(2842354753)_x000D_</t>
+  </si>
+  <si>
+    <t>Na Na Na(970139314)_x000D_</t>
+  </si>
+  <si>
+    <t>Unique(386358455)_x000D_</t>
+  </si>
+  <si>
+    <t>墨墨(554068550)_x000D_</t>
+  </si>
+  <si>
+    <t>猫猫如意(1054129339)_x000D_</t>
+  </si>
+  <si>
+    <t>黄健&lt;huangjian5931@qq.com&gt;_x000D_</t>
+  </si>
+  <si>
+    <t>灯半昏时(1032340257)_x000D_</t>
+  </si>
+  <si>
+    <t>我和小麦本家(1174965189)_x000D_</t>
+  </si>
+  <si>
+    <t>Z(523209129)_x000D_</t>
+  </si>
+  <si>
+    <t>紀小純(786375754)_x000D_</t>
+  </si>
+  <si>
+    <t>麒(172404460)_x000D_</t>
+  </si>
+  <si>
+    <t>han(1184762792)_x000D_</t>
+  </si>
+  <si>
+    <t>仙人掌(2023234587)_x000D_</t>
+  </si>
+  <si>
+    <t>1301陈紫欣(2010719010)_x000D_</t>
+  </si>
+  <si>
+    <t>南山南(1783586417)_x000D_</t>
+  </si>
+  <si>
+    <t>寂静欢喜(1047793182)_x000D_</t>
+  </si>
+  <si>
+    <t>漫同学(2685949972)_x000D_</t>
+  </si>
+  <si>
+    <t>右手年华(1169389895)_x000D_</t>
+  </si>
+  <si>
+    <t>づ Alice  、(291508839)_x000D_</t>
+  </si>
+  <si>
+    <t>馨_梦_缘(2380632272)_x000D_</t>
+  </si>
+  <si>
+    <t>주류(741903190)_x000D_</t>
+  </si>
+  <si>
+    <t>指尖划过(1506645431)_x000D_</t>
+  </si>
+  <si>
+    <t>左然莫奈(1690949570)_x000D_</t>
+  </si>
+  <si>
+    <t>环大帝(1776802386)_x000D_</t>
+  </si>
+  <si>
+    <t>kaoklai(2110401398)_x000D_</t>
+  </si>
+  <si>
+    <t>(1609961923)_x000D_</t>
+  </si>
+  <si>
+    <t>844764041(844764041)_x000D_</t>
+  </si>
+  <si>
+    <t>Flavor﹌○﹌(937265124)_x000D_</t>
+  </si>
+  <si>
+    <t>苗苗(599153085)_x000D_</t>
+  </si>
+  <si>
+    <t>Daisy**(1351462450)_x000D_</t>
+  </si>
+  <si>
+    <t>Seal＆Post(1984604486)_x000D_</t>
+  </si>
+  <si>
+    <t>我当仙女很久了&lt;niuniu784364039@qq.com&gt;_x000D_</t>
+  </si>
+  <si>
+    <t>柚子(78006689)_x000D_</t>
+  </si>
+  <si>
+    <t>辛鑫鑫#且听风吟(1402571788)_x000D_</t>
+  </si>
+  <si>
+    <t>(778746618)_x000D_</t>
+  </si>
+  <si>
+    <t>芳土中的金色記憶(1272240185)_x000D_</t>
+  </si>
+  <si>
+    <t>93号(1733004832)_x000D_</t>
+  </si>
+  <si>
+    <t>大街小巷''(565759084)_x000D_</t>
+  </si>
+  <si>
+    <t>(545520443)_x000D_</t>
+  </si>
+  <si>
+    <t>(654705193)_x000D_</t>
+  </si>
+  <si>
+    <t>18教育技术(1620957933)_x000D_</t>
+  </si>
+  <si>
+    <t>橘子黄时(1622394719)_x000D_</t>
+  </si>
+  <si>
+    <t>(2316605517)_x000D_</t>
+  </si>
+  <si>
+    <t>Serena-fragrans 🌻(295709662)_x000D_</t>
+  </si>
+  <si>
+    <t>水瑈(1210545829)_x000D_</t>
+  </si>
+  <si>
+    <t>青稞(1837693345)_x000D_</t>
+  </si>
+  <si>
+    <t>￣聽、雨茬丅(1229727136)_x000D_</t>
+  </si>
+  <si>
+    <t>清风★竹韵(2232770495)_x000D_</t>
+  </si>
+  <si>
+    <t>意乐(2928161289)_x000D_</t>
+  </si>
+  <si>
+    <t>囡囡小米(1187516892)_x000D_</t>
+  </si>
+  <si>
+    <t>lemon酸(1187264181)_x000D_</t>
+  </si>
+  <si>
+    <t>一只能唱会跳的DC🐮(892852910)_x000D_</t>
+  </si>
+  <si>
+    <t>(844764041)_x000D_</t>
+  </si>
+  <si>
+    <t>💤(297863069)_x000D_</t>
+  </si>
+  <si>
+    <t>风华正茂(2542208637)_x000D_</t>
+  </si>
+  <si>
+    <t>––––(1041621651)_x000D_</t>
+  </si>
+  <si>
+    <t>漂洋过海来看你(844764041)_x000D_</t>
+  </si>
+  <si>
+    <t>3432725894(3432725894)_x000D_</t>
+  </si>
+  <si>
+    <t>不要说话(1914826709)_x000D_</t>
+  </si>
+  <si>
+    <t>1174965189(1174965189)_x000D_</t>
+  </si>
+  <si>
+    <t>清玲之恋(1101314653)_x000D_</t>
+  </si>
+  <si>
+    <t>Hehhjk(1827843091)_x000D_</t>
+  </si>
+  <si>
+    <t>(1083463827)_x000D_</t>
+  </si>
+  <si>
+    <t>现代教育技术(1294520877)_x000D_</t>
+  </si>
+  <si>
+    <t>梨✌予君旁(1054474730)_x000D_</t>
+  </si>
+  <si>
+    <t>千寻瀑(957936238)_x000D_</t>
+  </si>
+  <si>
+    <t>小小小志(419825855)_x000D_</t>
+  </si>
+  <si>
+    <t>restart(1311449671)_x000D_</t>
+  </si>
+  <si>
+    <t>王家七大少(2092253097)_x000D_</t>
+  </si>
+  <si>
+    <t>安安(1784054339)_x000D_</t>
+  </si>
+  <si>
+    <t>吾心永恒👲(2685718613)_x000D_</t>
+  </si>
+  <si>
+    <t>鑫鑫蔷薇墙(1272240185)_x000D_</t>
+  </si>
+  <si>
+    <t>(78006689)_x000D_</t>
+  </si>
+  <si>
+    <t>做个简单的薯片😝(1743147231)_x000D_</t>
+  </si>
+  <si>
+    <t>^Secretofmyboy(1831844901)_x000D_</t>
+  </si>
+  <si>
+    <t>WSS (^V^)(1594288422)_x000D_</t>
+  </si>
+  <si>
+    <t>一匹马赛克♚(454096356)_x000D_</t>
+  </si>
+  <si>
+    <t>越努力 越幸运(1162902922)_x000D_</t>
+  </si>
+  <si>
+    <t>🍭(442511735)_x000D_</t>
+  </si>
+  <si>
+    <t>(3432725894)_x000D_</t>
+  </si>
+  <si>
+    <t>1129782826(1129782826)_x000D_</t>
+  </si>
+  <si>
+    <t>诚信(1239949433)_x000D_</t>
+  </si>
+  <si>
+    <t>可乐粉里的青花瓷(2714103049)_x000D_</t>
+  </si>
+  <si>
+    <t>(2232770495)_x000D_</t>
+  </si>
+  <si>
+    <t>蕶(957158256)_x000D_</t>
+  </si>
+  <si>
+    <t>(951060679)_x000D_</t>
+  </si>
+  <si>
+    <t>瘦子不瘦(1063358788)_x000D_</t>
+  </si>
+  <si>
+    <t>Daisy(1298147864)_x000D_</t>
+  </si>
+  <si>
+    <t>づ思念、漫过我的城&lt;spygzeq@foxmail.com&gt;_x000D_</t>
+  </si>
+  <si>
+    <t>时光凉人心(2396341551)_x000D_</t>
+  </si>
+  <si>
+    <t>地瓜你个烤番薯 🍉(860485645)_x000D_</t>
+  </si>
+  <si>
+    <t>just a loser(3432725894)_x000D_</t>
+  </si>
+  <si>
+    <t>(1776802386)_x000D_</t>
+  </si>
+  <si>
+    <t>此时此刻的云 二十来岁的(1032725610)_x000D_</t>
+  </si>
+  <si>
+    <t>`M'aster(522156844)_x000D_</t>
+  </si>
+  <si>
+    <t>(2928161289)_x000D_</t>
+  </si>
+  <si>
+    <t>Jack L(1986106726)_x000D_</t>
+  </si>
+  <si>
+    <t>我当仙女很久了(784364039)_x000D_</t>
+  </si>
+  <si>
+    <t>1301-吴海英。(932772445)_x000D_</t>
+  </si>
+  <si>
+    <t>(2010719010)_x000D_</t>
+  </si>
+  <si>
+    <t>๑˙ー˙๑懵石子(1241539404)_x000D_</t>
+  </si>
+  <si>
+    <t>花落.自相惜(1037898131)_x000D_</t>
+  </si>
+  <si>
+    <t>针(1745996805)_x000D_</t>
+  </si>
+  <si>
+    <t>少说话多看书！(951060679)_x000D_</t>
+  </si>
+  <si>
+    <t>流萤(1745996805)_x000D_</t>
+  </si>
+  <si>
+    <t>如果你愿意去给河马刷牙。(840590962)_x000D_</t>
+  </si>
+  <si>
+    <t>Yesterday(847143652)_x000D_</t>
+  </si>
+  <si>
+    <t>旭(819069359)_x000D_</t>
+  </si>
+  <si>
+    <t>brilliant(852415491)_x000D_</t>
+  </si>
+  <si>
+    <t>小熹(809054374)_x000D_</t>
+  </si>
+  <si>
+    <t>957158256(957158256)_x000D_</t>
+  </si>
+  <si>
+    <t>给咖啡加点盐(1776802386)_x000D_</t>
+  </si>
+  <si>
+    <t>1984604486(1984604486)_x000D_</t>
+  </si>
+  <si>
+    <t>ctrl+s(654705193)_x000D_</t>
+  </si>
+  <si>
+    <t>小时候*^_^*(807490863)_x000D_</t>
+  </si>
+  <si>
+    <t>系统消息(1000000)_x000D_</t>
+  </si>
+  <si>
+    <t>1210545829(1210545829)_x000D_</t>
+  </si>
+  <si>
+    <t>970139314(970139314)_x000D_</t>
+  </si>
+  <si>
+    <t>Sunday(2661528418)_x000D_</t>
+  </si>
+  <si>
+    <t>凌云志(1741607086)_x000D_</t>
+  </si>
+  <si>
+    <t>小角儿(2845312245)_x000D_</t>
+  </si>
+  <si>
+    <t>。。(1006899020)_x000D_</t>
+  </si>
+  <si>
+    <t>lily _an(694893590)_x000D_</t>
+  </si>
+  <si>
+    <t>L_兔小灰(1772667705)_x000D_</t>
+  </si>
+  <si>
+    <t>(476140671)_x000D_</t>
+  </si>
+  <si>
+    <t>湖南一师 丁青(1344263164)_x000D_</t>
+  </si>
+  <si>
+    <t>silence(1224506701)_x000D_</t>
+  </si>
+  <si>
+    <t>期待，明天(1208821126)_x000D_</t>
+  </si>
+  <si>
+    <t>2928161289(2928161289)_x000D_</t>
+  </si>
+  <si>
+    <t>(565759084)_x000D_</t>
+  </si>
+  <si>
+    <t>水   墨   青   花(1784886866)_x000D_</t>
+  </si>
+  <si>
+    <t>(2685949972)_x000D_</t>
+  </si>
+  <si>
+    <t>Seven(1299737803)_x000D_</t>
+  </si>
+  <si>
+    <t>晴晨朗暮(1422665168)_x000D_</t>
+  </si>
+  <si>
+    <t>小小(1418168422)_x000D_</t>
+  </si>
+  <si>
+    <t>幽人琼月饮恨(1430499401)_x000D_</t>
+  </si>
+  <si>
+    <t>DISTANCE(2839895870)_x000D_</t>
+  </si>
+  <si>
+    <t>(1743147231)_x000D_</t>
+  </si>
+  <si>
+    <t>Stonegarlic(1650992907)_x000D_</t>
+  </si>
+  <si>
+    <t>张弓搭箭(284688288)_x000D_</t>
+  </si>
+  <si>
+    <t>空空狐(1241663874)_x000D_</t>
+  </si>
+  <si>
+    <t>MY  *LoVe*(1094534358)_x000D_</t>
+  </si>
+  <si>
+    <t>🌺PYQYTT🌺(1838580985)_x000D_</t>
+  </si>
+  <si>
+    <t>(1174965189)_x000D_</t>
+  </si>
+  <si>
+    <t>🐙📄🍎(1542537253)_x000D_</t>
+  </si>
+  <si>
+    <t>爱の味（思念）(961335326)_x000D_</t>
+  </si>
+  <si>
+    <t>青色花(1034336554)_x000D_</t>
+  </si>
+  <si>
+    <t>ゆ "淡然、回眸ゝ(1242975495)_x000D_</t>
+  </si>
+  <si>
+    <t>(2396341551)_x000D_</t>
+  </si>
+  <si>
+    <t>只是#为了你(1416798557)_x000D_</t>
+  </si>
+  <si>
+    <t>(1242975495)_x000D_</t>
+  </si>
+  <si>
+    <t>1511494747(1511494747)_x000D_</t>
+  </si>
+  <si>
+    <t>。(1344263164)_x000D_</t>
+  </si>
+  <si>
+    <t>2896078156(2896078156)_x000D_</t>
+  </si>
+  <si>
+    <t>1224506701(1224506701)_x000D_</t>
+  </si>
+  <si>
+    <t>幸福很简单😄(1277940729)_x000D_</t>
+  </si>
+  <si>
+    <t>1915238009(1915238009)_x000D_</t>
+  </si>
+  <si>
+    <t>想子(1614184081)_x000D_</t>
+  </si>
+  <si>
+    <t>Toaster(810849768)_x000D_</t>
+  </si>
+  <si>
+    <t>DD(810712967)_x000D_</t>
+  </si>
+  <si>
+    <t>Prestigious Firefly(1115236369)_x000D_</t>
+  </si>
+  <si>
+    <t>1784054339(1784054339)_x000D_</t>
+  </si>
+  <si>
+    <t>紫云雪凝(2296304042)_x000D_</t>
+  </si>
+  <si>
+    <t>安然anr(2756989348)_x000D_</t>
+  </si>
+  <si>
+    <t>1083463827(1083463827)_x000D_</t>
+  </si>
+  <si>
+    <t>17现代教育技术 羊羊羊(504374704)_x000D_</t>
+  </si>
+  <si>
+    <t>(787065816)_x000D_</t>
+  </si>
+  <si>
+    <t>我爱足球(799392754)_x000D_</t>
+  </si>
+  <si>
+    <t>(591432218)_x000D_</t>
+  </si>
+  <si>
+    <t>(1690949570)_x000D_</t>
+  </si>
+  <si>
+    <t>(2475285079)_x000D_</t>
+  </si>
+  <si>
+    <t>245695702(245695702)_x000D_</t>
+  </si>
+  <si>
+    <t>离线中•﹏•(1134566393)_x000D_</t>
+  </si>
+  <si>
+    <t>Dandelions(1142159389)_x000D_</t>
+  </si>
+  <si>
+    <t>但梧(2592115681)_x000D_</t>
+  </si>
+  <si>
+    <t>依然(1411508114)_x000D_</t>
+  </si>
+  <si>
+    <t>等一朵花开(3176309978)_x000D_</t>
+  </si>
+  <si>
+    <t>(892852910)_x000D_</t>
+  </si>
+  <si>
+    <t>(809054374)_x000D_</t>
+  </si>
+  <si>
+    <t>(1043445531)_x000D_</t>
+  </si>
+  <si>
+    <t>(291508839)_x000D_</t>
+  </si>
+  <si>
+    <t>roach(962746955)_x000D_</t>
+  </si>
+  <si>
+    <t>小牙套龙猫i(1277808615)_x000D_</t>
+  </si>
+  <si>
+    <t>山 鸡。、(861306182)_x000D_</t>
+  </si>
+  <si>
+    <t>灿烂千阳(1499851159)_x000D_</t>
+  </si>
+  <si>
+    <t>(245695702)_x000D_</t>
+  </si>
+  <si>
+    <t>(970139314)_x000D_</t>
+  </si>
+  <si>
+    <t>YJ.C(497596161)_x000D_</t>
+  </si>
+  <si>
+    <t>少年不白(982045468)_x000D_</t>
+  </si>
+  <si>
+    <t>西西舒(809054374)_x000D_</t>
+  </si>
+  <si>
+    <t>(1784054339)_x000D_</t>
+  </si>
+  <si>
+    <t>叮叮当(1655484635)_x000D_</t>
+  </si>
+  <si>
+    <t>(2592115681)_x000D_</t>
+  </si>
+  <si>
+    <t>米虫(1373859151)_x000D_</t>
+  </si>
+  <si>
+    <t>つ情如初见╮(571718178)_x000D_</t>
+  </si>
+  <si>
+    <t>411453535(411453535)_x000D_</t>
+  </si>
+  <si>
+    <t>(1915238009)_x000D_</t>
+  </si>
+  <si>
+    <t>😧(297863069)_x000D_</t>
+  </si>
+  <si>
+    <t>(2621256871)_x000D_</t>
+  </si>
+  <si>
+    <t>COMPASSES(1921354189)_x000D_</t>
+  </si>
+  <si>
+    <t>我想静静(739748139)_x000D_</t>
+  </si>
+  <si>
+    <t>(1984604486)_x000D_</t>
+  </si>
+  <si>
+    <t>宁夏(2643159023)_x000D_</t>
+  </si>
+  <si>
+    <t>Keeping  -forever(1305120310)_x000D_</t>
+  </si>
+  <si>
+    <t>654705193(654705193)_x000D_</t>
+  </si>
+  <si>
+    <t>(904871848)_x000D_</t>
+  </si>
+  <si>
+    <t>(522156844)_x000D_</t>
+  </si>
+  <si>
+    <t>(1129782826)_x000D_</t>
+  </si>
+  <si>
+    <t>kirito(2350076082)_x000D_</t>
+  </si>
+  <si>
+    <t>(1397755301)_x000D_</t>
+  </si>
+  <si>
+    <t>(454096356)_x000D_</t>
+  </si>
+  <si>
+    <t>(1224506701)_x000D_</t>
+  </si>
+  <si>
+    <t>益芝花(1123776491)_x000D_</t>
+  </si>
+  <si>
+    <t>阿莲(2303796493)_x000D_</t>
+  </si>
+  <si>
+    <t>Z + +(411453535)_x000D_</t>
+  </si>
+  <si>
+    <t>语过添情(1973922416)_x000D_</t>
+  </si>
+  <si>
+    <t>同一个梦想(1040500460)_x000D_</t>
+  </si>
+  <si>
+    <t>如癡如醉的梦(1587113775)_x000D_</t>
+  </si>
+  <si>
+    <t>℡在乎不曾在乎的(1506725501)_x000D_</t>
+  </si>
+  <si>
+    <t>1301班张阳莉(772106763)_x000D_</t>
+  </si>
+  <si>
+    <t>2572955597(2572955597)_x000D_</t>
+  </si>
+  <si>
+    <t>飛钬鎏天(1394121224)_x000D_</t>
+  </si>
+  <si>
+    <t>韩晶晶(1724226940)_x000D_</t>
+  </si>
+  <si>
+    <t>(2223618247)_x000D_</t>
+  </si>
+  <si>
+    <t>(2110401398)_x000D_</t>
+  </si>
+  <si>
+    <t>(614490691)_x000D_</t>
+  </si>
+  <si>
+    <t>≈咕叽咕叽🐳(735179175)_x000D_</t>
+  </si>
+  <si>
+    <t>哎呦威(2249621596)_x000D_</t>
+  </si>
+  <si>
+    <t>袁艺双(2661528418)_x000D_</t>
+  </si>
+  <si>
+    <t>笳葭简茧(857341987)_x000D_</t>
+  </si>
+  <si>
+    <t>哒嘎啦(1740947772)_x000D_</t>
+  </si>
+  <si>
+    <t>(1745996805)_x000D_</t>
+  </si>
+  <si>
+    <t>秋轩(362713501)_x000D_</t>
+  </si>
+  <si>
+    <t>(664097267)_x000D_</t>
+  </si>
+  <si>
+    <t>范特莱特(778746618)_x000D_</t>
+  </si>
+  <si>
+    <t>(957158256)_x000D_</t>
+  </si>
+  <si>
+    <t>张慧(1451996420)_x000D_</t>
+  </si>
+  <si>
+    <t>17届(1184356775)_x000D_</t>
+  </si>
+  <si>
+    <t>梓沫(1163714799)_x000D_</t>
+  </si>
+  <si>
+    <t>Sun(591983163)_x000D_</t>
+  </si>
+  <si>
+    <t>☞尚尚 签(2078159179)_x000D_</t>
+  </si>
+  <si>
+    <t>(1210545829)_x000D_</t>
+  </si>
+  <si>
+    <t>🐬(1442333964)_x000D_</t>
+  </si>
+  <si>
+    <t>雨天囡囡(270415610)_x000D_</t>
+  </si>
+  <si>
+    <t>蒲公樱.(348016231)_x000D_</t>
+  </si>
+  <si>
+    <t>2633180732(2633180732)_x000D_</t>
+  </si>
+  <si>
+    <t>筱`然儿(649617133)_x000D_</t>
+  </si>
+  <si>
+    <t>cCello(497596161)_x000D_</t>
+  </si>
+  <si>
+    <t>syd@七哥(545520443)_x000D_</t>
+  </si>
+  <si>
+    <t>留胡渣的硬汉(860485645)_x000D_</t>
   </si>
   <si>
     <t>词汇</t>
